--- a/outputs_HGR/o__Selenomonadales.xlsx
+++ b/outputs_HGR/o__Selenomonadales.xlsx
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.00110691159141485</v>
+        <v>0.001718873470788918</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9988930884085852</v>
+        <v>0.9982811265292111</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9988930884085852</v>
+        <v>0.9982811265292111</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -499,13 +499,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02290952665837886</v>
+        <v>0.04520875292208282</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9770904733416211</v>
+        <v>0.9547912470779172</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9770904733416211</v>
+        <v>0.9547912470779172</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.005305291077241647</v>
+        <v>0.006306066632520868</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9946947089227584</v>
+        <v>0.9936939333674791</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9946947089227584</v>
+        <v>0.9936939333674791</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -551,13 +551,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1429659657435054</v>
+        <v>0.2498614161129953</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8570340342564946</v>
+        <v>0.7501385838870047</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8570340342564946</v>
+        <v>0.7501385838870047</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -566,7 +566,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Veillonellaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001813272771060914</v>
+        <v>0.00353620680369604</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9981867272289391</v>
+        <v>0.996463793196304</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9981867272289391</v>
+        <v>0.996463793196304</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -603,13 +603,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0005462399047581057</v>
+        <v>0.0009837439516845459</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9994537600952419</v>
+        <v>0.9990162560483155</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9994537600952419</v>
+        <v>0.9990162560483155</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -629,13 +629,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.001087198566630421</v>
+        <v>0.002005286747458035</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9989128014333696</v>
+        <v>0.997994713252542</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9989128014333696</v>
+        <v>0.997994713252542</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -655,13 +655,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.08111480692008199</v>
+        <v>0.120934085255199</v>
       </c>
       <c r="C9" t="n">
-        <v>0.918885193079918</v>
+        <v>0.879065914744801</v>
       </c>
       <c r="D9" t="n">
-        <v>0.918885193079918</v>
+        <v>0.879065914744801</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -681,13 +681,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.04408468017372946</v>
+        <v>0.08823338577311102</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9559153198262705</v>
+        <v>0.9117666142268891</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9559153198262705</v>
+        <v>0.9117666142268891</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0502954881950114</v>
+        <v>0.0813268853614022</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9497045118049886</v>
+        <v>0.9186731146385978</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9497045118049886</v>
+        <v>0.9186731146385978</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -733,13 +733,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.00154230646876008</v>
+        <v>0.002840584065591512</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9984576935312399</v>
+        <v>0.9971594159344085</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9984576935312399</v>
+        <v>0.9971594159344085</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.001839156232148365</v>
+        <v>0.002151144228793589</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9981608437678516</v>
+        <v>0.9978488557712064</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9981608437678516</v>
+        <v>0.9978488557712064</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -785,13 +785,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0585510841850484</v>
+        <v>0.1087000210322198</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9414489158149517</v>
+        <v>0.8912999789677803</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9414489158149517</v>
+        <v>0.8912999789677803</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -811,13 +811,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.001839156232148365</v>
+        <v>0.002151144228793589</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9981608437678516</v>
+        <v>0.9978488557712064</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9981608437678516</v>
+        <v>0.9978488557712064</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -837,13 +837,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.001839156232148365</v>
+        <v>0.002151144228793589</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9981608437678516</v>
+        <v>0.9978488557712064</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9981608437678516</v>
+        <v>0.9978488557712064</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -863,13 +863,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.001420713029353871</v>
+        <v>0.002654463772489235</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9985792869706461</v>
+        <v>0.9973455362275108</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9985792869706461</v>
+        <v>0.9973455362275108</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -889,13 +889,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.05235480774962464</v>
+        <v>0.08426262112664262</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9476451922503754</v>
+        <v>0.9157373788733574</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9476451922503754</v>
+        <v>0.9157373788733574</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -915,13 +915,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.004658786231738321</v>
+        <v>0.005273397598323348</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9953412137682617</v>
+        <v>0.9947266024016767</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9953412137682617</v>
+        <v>0.9947266024016767</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -941,13 +941,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.00145971034605652</v>
+        <v>0.0008376683673212426</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9985402896539435</v>
+        <v>0.9991623316326788</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9985402896539435</v>
+        <v>0.9991623316326788</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0005355627129205454</v>
+        <v>0.0006774897137928892</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9994644372870795</v>
+        <v>0.9993225102862071</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9994644372870795</v>
+        <v>0.9993225102862071</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -993,13 +993,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.001371363182426366</v>
+        <v>0.002323467332886353</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9986286368175736</v>
+        <v>0.9976765326671136</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9986286368175736</v>
+        <v>0.9976765326671136</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1019,13 +1019,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.005225610429713701</v>
+        <v>0.00608963578221422</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9947743895702863</v>
+        <v>0.9939103642177858</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9947743895702863</v>
+        <v>0.9939103642177858</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1045,13 +1045,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.001907935835890662</v>
+        <v>0.002384391334991021</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9980920641641093</v>
+        <v>0.997615608665009</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9980920641641093</v>
+        <v>0.997615608665009</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.0009944732983034887</v>
+        <v>0.0008443221226323017</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9990055267016965</v>
+        <v>0.9991556778773677</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9990055267016965</v>
+        <v>0.9991556778773677</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1097,13 +1097,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.0009370446073079242</v>
+        <v>0.0005223204048832031</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9990629553926921</v>
+        <v>0.9994776795951168</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9990629553926921</v>
+        <v>0.9994776795951168</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.0008877907812988585</v>
+        <v>0.002132631722112421</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9991122092187011</v>
+        <v>0.9978673682778876</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9991122092187011</v>
+        <v>0.9978673682778876</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1149,13 +1149,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.05235480774962464</v>
+        <v>0.08426262112664262</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9476451922503754</v>
+        <v>0.9157373788733574</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9476451922503754</v>
+        <v>0.9157373788733574</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1175,13 +1175,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.004594473669297217</v>
+        <v>0.004850781754757172</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9954055263307028</v>
+        <v>0.9951492182452428</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9954055263307028</v>
+        <v>0.9951492182452428</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1201,13 +1201,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.005350325390903965</v>
+        <v>0.007607935343055594</v>
       </c>
       <c r="C30" t="n">
-        <v>0.994649674609096</v>
+        <v>0.9923920646569444</v>
       </c>
       <c r="D30" t="n">
-        <v>0.994649674609096</v>
+        <v>0.9923920646569444</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1227,13 +1227,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01326391624730783</v>
+        <v>0.01478672092137656</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9867360837526922</v>
+        <v>0.9852132790786234</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9867360837526922</v>
+        <v>0.9852132790786234</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1253,13 +1253,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.002943385034980261</v>
+        <v>0.005742181782916411</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9970566149650197</v>
+        <v>0.9942578182170836</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9970566149650197</v>
+        <v>0.9942578182170836</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.002696678545798803</v>
+        <v>0.005051103114609323</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9973033214542012</v>
+        <v>0.9949488968853907</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9973033214542012</v>
+        <v>0.9949488968853907</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1305,13 +1305,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.07758342050871937</v>
+        <v>0.1453307500111027</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9224165794912806</v>
+        <v>0.8546692499888973</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9224165794912806</v>
+        <v>0.8546692499888973</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1331,13 +1331,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.001138323088402227</v>
+        <v>0.0024081391884333</v>
       </c>
       <c r="C35" t="n">
-        <v>0.9988616769115978</v>
+        <v>0.9975918608115667</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9988616769115978</v>
+        <v>0.9975918608115667</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1357,13 +1357,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.001479412645717715</v>
+        <v>0.001776665248688469</v>
       </c>
       <c r="C36" t="n">
-        <v>0.9985205873542823</v>
+        <v>0.9982233347513115</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9985205873542823</v>
+        <v>0.9982233347513115</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.03267553955999813</v>
+        <v>0.03737081146441179</v>
       </c>
       <c r="C37" t="n">
-        <v>0.9673244604400019</v>
+        <v>0.9626291885355882</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9673244604400019</v>
+        <v>0.9626291885355882</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1409,13 +1409,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.99999822349588</v>
+        <v>0.9999965955513795</v>
       </c>
       <c r="C38" t="n">
-        <v>1.776504120021304e-06</v>
+        <v>3.404448620467455e-06</v>
       </c>
       <c r="D38" t="n">
-        <v>0.99999822349588</v>
+        <v>0.9999965955513795</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1435,13 +1435,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.02374433276069088</v>
+        <v>0.06560817910690031</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9762556672393091</v>
+        <v>0.9343918208930997</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9762556672393091</v>
+        <v>0.9343918208930997</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1461,13 +1461,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.001545588966190836</v>
+        <v>0.002978104893309963</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9984544110338092</v>
+        <v>0.99702189510669</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9984544110338092</v>
+        <v>0.99702189510669</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1487,13 +1487,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.001950426836536789</v>
+        <v>0.002067330993884342</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9980495731634632</v>
+        <v>0.9979326690061157</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9980495731634632</v>
+        <v>0.9979326690061157</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1513,13 +1513,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.02450137691672227</v>
+        <v>0.04853225059456779</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9754986230832777</v>
+        <v>0.9514677494054322</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9754986230832777</v>
+        <v>0.9514677494054322</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1539,13 +1539,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.0227213044015413</v>
+        <v>0.02820920356802958</v>
       </c>
       <c r="C43" t="n">
-        <v>0.9772786955984587</v>
+        <v>0.9717907964319704</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9772786955984587</v>
+        <v>0.9717907964319704</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1565,13 +1565,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.09974615444422086</v>
+        <v>0.1263930223710918</v>
       </c>
       <c r="C44" t="n">
-        <v>0.9002538455557791</v>
+        <v>0.8736069776289082</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9002538455557791</v>
+        <v>0.8736069776289082</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1591,13 +1591,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.0597741546565751</v>
+        <v>0.129968630558718</v>
       </c>
       <c r="C45" t="n">
-        <v>0.9402258453434249</v>
+        <v>0.870031369441282</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9402258453434249</v>
+        <v>0.870031369441282</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1617,13 +1617,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.003127316131054658</v>
+        <v>0.005156960042195791</v>
       </c>
       <c r="C46" t="n">
-        <v>0.9968726838689453</v>
+        <v>0.9948430399578042</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9968726838689453</v>
+        <v>0.9948430399578042</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1643,13 +1643,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.0009979777337272289</v>
+        <v>0.002220178870122269</v>
       </c>
       <c r="C47" t="n">
-        <v>0.9990020222662728</v>
+        <v>0.9977798211298777</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9990020222662728</v>
+        <v>0.9977798211298777</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1669,13 +1669,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.0006698555765324299</v>
+        <v>0.0007740184636011449</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9993301444234676</v>
+        <v>0.9992259815363989</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9993301444234676</v>
+        <v>0.9992259815363989</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1695,13 +1695,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.0008257172924991396</v>
+        <v>0.00196050735046438</v>
       </c>
       <c r="C49" t="n">
-        <v>0.9991742827075009</v>
+        <v>0.9980394926495356</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9991742827075009</v>
+        <v>0.9980394926495356</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1721,13 +1721,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.002371369269550394</v>
+        <v>0.002317021388867468</v>
       </c>
       <c r="C50" t="n">
-        <v>0.9976286307304496</v>
+        <v>0.9976829786111325</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9976286307304496</v>
+        <v>0.9976829786111325</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1747,13 +1747,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.001417673932849195</v>
+        <v>0.001681678697851519</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9985823260671508</v>
+        <v>0.9983183213021485</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9985823260671508</v>
+        <v>0.9983183213021485</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1773,13 +1773,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.0006006439228657401</v>
+        <v>0.0007744854660000078</v>
       </c>
       <c r="C52" t="n">
-        <v>0.9993993560771343</v>
+        <v>0.999225514534</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9993993560771343</v>
+        <v>0.999225514534</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1799,13 +1799,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.003225690563018024</v>
+        <v>0.008369884726901811</v>
       </c>
       <c r="C53" t="n">
-        <v>0.996774309436982</v>
+        <v>0.9916301152730982</v>
       </c>
       <c r="D53" t="n">
-        <v>0.996774309436982</v>
+        <v>0.9916301152730982</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1825,13 +1825,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.003065096744043871</v>
+        <v>0.003520615465869681</v>
       </c>
       <c r="C54" t="n">
-        <v>0.9969349032559561</v>
+        <v>0.9964793845341303</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9969349032559561</v>
+        <v>0.9964793845341303</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1851,13 +1851,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.01495521879251704</v>
+        <v>0.01729557973133755</v>
       </c>
       <c r="C55" t="n">
-        <v>0.985044781207483</v>
+        <v>0.9827044202686624</v>
       </c>
       <c r="D55" t="n">
-        <v>0.985044781207483</v>
+        <v>0.9827044202686624</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1877,13 +1877,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.0006849930937214976</v>
+        <v>0.0006328558141078799</v>
       </c>
       <c r="C56" t="n">
-        <v>0.9993150069062785</v>
+        <v>0.9993671441858921</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9993150069062785</v>
+        <v>0.9993671441858921</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1903,13 +1903,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.001179863601154185</v>
+        <v>0.001171231570108233</v>
       </c>
       <c r="C57" t="n">
-        <v>0.9988201363988458</v>
+        <v>0.9988287684298918</v>
       </c>
       <c r="D57" t="n">
-        <v>0.9988201363988458</v>
+        <v>0.9988287684298918</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1929,13 +1929,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.07086675614197602</v>
+        <v>0.134613364934312</v>
       </c>
       <c r="C58" t="n">
-        <v>0.929133243858024</v>
+        <v>0.865386635065688</v>
       </c>
       <c r="D58" t="n">
-        <v>0.929133243858024</v>
+        <v>0.865386635065688</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1955,13 +1955,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01524739081905091</v>
+        <v>0.02395482610157395</v>
       </c>
       <c r="C59" t="n">
-        <v>0.9847526091809491</v>
+        <v>0.976045173898426</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9847526091809491</v>
+        <v>0.976045173898426</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1981,13 +1981,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.001693289276793131</v>
+        <v>0.003478307477369547</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9983067107232069</v>
+        <v>0.9965216925226305</v>
       </c>
       <c r="D60" t="n">
-        <v>0.9983067107232069</v>
+        <v>0.9965216925226305</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2007,13 +2007,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01397582723343627</v>
+        <v>0.01899931393861198</v>
       </c>
       <c r="C61" t="n">
-        <v>0.9860241727665637</v>
+        <v>0.981000686061388</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9860241727665637</v>
+        <v>0.981000686061388</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2033,13 +2033,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.001652119619497516</v>
+        <v>0.002396364254517835</v>
       </c>
       <c r="C62" t="n">
-        <v>0.9983478803805025</v>
+        <v>0.9976036357454822</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9983478803805025</v>
+        <v>0.9976036357454822</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2059,13 +2059,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.04526654057480495</v>
+        <v>0.08073119493988568</v>
       </c>
       <c r="C63" t="n">
-        <v>0.9547334594251951</v>
+        <v>0.9192688050601143</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9547334594251951</v>
+        <v>0.9192688050601143</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2085,13 +2085,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.03983577895648238</v>
+        <v>0.06085909272644885</v>
       </c>
       <c r="C64" t="n">
-        <v>0.9601642210435176</v>
+        <v>0.9391409072735512</v>
       </c>
       <c r="D64" t="n">
-        <v>0.9601642210435176</v>
+        <v>0.9391409072735512</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2111,13 +2111,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.001864407323290407</v>
+        <v>0.002467508706967769</v>
       </c>
       <c r="C65" t="n">
-        <v>0.9981355926767096</v>
+        <v>0.9975324912930322</v>
       </c>
       <c r="D65" t="n">
-        <v>0.9981355926767096</v>
+        <v>0.9975324912930322</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2137,13 +2137,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.9513328514730071</v>
+        <v>0.9454611014477922</v>
       </c>
       <c r="C66" t="n">
-        <v>0.04866714852699293</v>
+        <v>0.05453889855220787</v>
       </c>
       <c r="D66" t="n">
-        <v>0.9513328514730071</v>
+        <v>0.9454611014477922</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2163,13 +2163,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.0004270996824963236</v>
+        <v>0.0009795753008370323</v>
       </c>
       <c r="C67" t="n">
-        <v>0.9995729003175037</v>
+        <v>0.999020424699163</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9995729003175037</v>
+        <v>0.999020424699163</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2189,13 +2189,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.001223702689315598</v>
+        <v>0.002002268365281168</v>
       </c>
       <c r="C68" t="n">
-        <v>0.9987762973106844</v>
+        <v>0.9979977316347188</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9987762973106844</v>
+        <v>0.9979977316347188</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2215,13 +2215,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.0003987311995955478</v>
+        <v>0.0003994618504430392</v>
       </c>
       <c r="C69" t="n">
-        <v>0.9996012688004045</v>
+        <v>0.999600538149557</v>
       </c>
       <c r="D69" t="n">
-        <v>0.9996012688004045</v>
+        <v>0.999600538149557</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2241,13 +2241,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.000982142182010759</v>
+        <v>0.001180960384577712</v>
       </c>
       <c r="C70" t="n">
-        <v>0.9990178578179892</v>
+        <v>0.9988190396154223</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9990178578179892</v>
+        <v>0.9988190396154223</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2267,13 +2267,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.04969247326587346</v>
+        <v>0.1103744172840245</v>
       </c>
       <c r="C71" t="n">
-        <v>0.9503075267341266</v>
+        <v>0.8896255827159756</v>
       </c>
       <c r="D71" t="n">
-        <v>0.9503075267341266</v>
+        <v>0.8896255827159756</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2293,13 +2293,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.08868520495207177</v>
+        <v>0.147680943919494</v>
       </c>
       <c r="C72" t="n">
-        <v>0.9113147950479282</v>
+        <v>0.852319056080506</v>
       </c>
       <c r="D72" t="n">
-        <v>0.9113147950479282</v>
+        <v>0.852319056080506</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2319,13 +2319,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.0009512361757221255</v>
+        <v>0.0005157276602171246</v>
       </c>
       <c r="C73" t="n">
-        <v>0.9990487638242779</v>
+        <v>0.9994842723397829</v>
       </c>
       <c r="D73" t="n">
-        <v>0.9990487638242779</v>
+        <v>0.9994842723397829</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2345,13 +2345,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.000830370504313005</v>
+        <v>0.001077064246997272</v>
       </c>
       <c r="C74" t="n">
-        <v>0.999169629495687</v>
+        <v>0.9989229357530027</v>
       </c>
       <c r="D74" t="n">
-        <v>0.999169629495687</v>
+        <v>0.9989229357530027</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2371,13 +2371,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.01981405119610302</v>
+        <v>0.03776035658982801</v>
       </c>
       <c r="C75" t="n">
-        <v>0.980185948803897</v>
+        <v>0.962239643410172</v>
       </c>
       <c r="D75" t="n">
-        <v>0.980185948803897</v>
+        <v>0.962239643410172</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2397,13 +2397,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.004751080879876524</v>
+        <v>0.009000475239065775</v>
       </c>
       <c r="C76" t="n">
-        <v>0.9952489191201235</v>
+        <v>0.9909995247609342</v>
       </c>
       <c r="D76" t="n">
-        <v>0.9952489191201235</v>
+        <v>0.9909995247609342</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2423,13 +2423,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.07131196869814527</v>
+        <v>0.09886967536582747</v>
       </c>
       <c r="C77" t="n">
-        <v>0.9286880313018547</v>
+        <v>0.9011303246341725</v>
       </c>
       <c r="D77" t="n">
-        <v>0.9286880313018547</v>
+        <v>0.9011303246341725</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2449,13 +2449,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.05081533158818852</v>
+        <v>0.09191949404800713</v>
       </c>
       <c r="C78" t="n">
-        <v>0.9491846684118115</v>
+        <v>0.9080805059519929</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9491846684118115</v>
+        <v>0.9080805059519929</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.001600732016536988</v>
+        <v>0.002540318002695829</v>
       </c>
       <c r="C79" t="n">
-        <v>0.998399267983463</v>
+        <v>0.9974596819973042</v>
       </c>
       <c r="D79" t="n">
-        <v>0.998399267983463</v>
+        <v>0.9974596819973042</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2501,13 +2501,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.04490090224765553</v>
+        <v>0.07622906746568348</v>
       </c>
       <c r="C80" t="n">
-        <v>0.9550990977523445</v>
+        <v>0.9237709325343165</v>
       </c>
       <c r="D80" t="n">
-        <v>0.9550990977523445</v>
+        <v>0.9237709325343165</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2527,13 +2527,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.06723785853799724</v>
+        <v>0.1133214773933854</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9327621414620028</v>
+        <v>0.8866785226066146</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9327621414620028</v>
+        <v>0.8866785226066146</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2553,13 +2553,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.0451195210857881</v>
+        <v>0.07671819796648893</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9548804789142119</v>
+        <v>0.9232818020335111</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9548804789142119</v>
+        <v>0.9232818020335111</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2579,13 +2579,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.07708406195975914</v>
+        <v>0.12290864153881</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9229159380402409</v>
+        <v>0.87709135846119</v>
       </c>
       <c r="D83" t="n">
-        <v>0.9229159380402409</v>
+        <v>0.87709135846119</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2605,13 +2605,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.2603505116976412</v>
+        <v>0.2809868661034582</v>
       </c>
       <c r="C84" t="n">
-        <v>0.7396494883023588</v>
+        <v>0.7190131338965418</v>
       </c>
       <c r="D84" t="n">
-        <v>0.7396494883023588</v>
+        <v>0.7190131338965418</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2631,13 +2631,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.000603004343364133</v>
+        <v>0.0004941766945079085</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9993969956566359</v>
+        <v>0.9995058233054921</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9993969956566359</v>
+        <v>0.9995058233054921</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2657,13 +2657,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.0008391256180169115</v>
+        <v>0.0008822257558886992</v>
       </c>
       <c r="C86" t="n">
-        <v>0.9991608743819831</v>
+        <v>0.9991177742441113</v>
       </c>
       <c r="D86" t="n">
-        <v>0.9991608743819831</v>
+        <v>0.9991177742441113</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2683,13 +2683,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.9952087915114455</v>
+        <v>0.9970040399804079</v>
       </c>
       <c r="C87" t="n">
-        <v>0.004791208488554554</v>
+        <v>0.002995960019592144</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9952087915114455</v>
+        <v>0.9970040399804079</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2709,13 +2709,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.000243668626222715</v>
+        <v>0.0001354719589381492</v>
       </c>
       <c r="C88" t="n">
-        <v>0.9997563313737773</v>
+        <v>0.9998645280410619</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9997563313737773</v>
+        <v>0.9998645280410619</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2735,13 +2735,13 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.0003282153837500523</v>
+        <v>0.0002860142193600312</v>
       </c>
       <c r="C89" t="n">
-        <v>0.9996717846162499</v>
+        <v>0.99971398578064</v>
       </c>
       <c r="D89" t="n">
-        <v>0.9996717846162499</v>
+        <v>0.99971398578064</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2761,13 +2761,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.001219784111313293</v>
+        <v>0.0008101898405517005</v>
       </c>
       <c r="C90" t="n">
-        <v>0.9987802158886867</v>
+        <v>0.9991898101594483</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9987802158886867</v>
+        <v>0.9991898101594483</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2787,13 +2787,13 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.000229405850347919</v>
+        <v>0.0002483317874296675</v>
       </c>
       <c r="C91" t="n">
-        <v>0.9997705941496521</v>
+        <v>0.9997516682125703</v>
       </c>
       <c r="D91" t="n">
-        <v>0.9997705941496521</v>
+        <v>0.9997516682125703</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2813,13 +2813,13 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.05348283890499494</v>
+        <v>0.05686915730467068</v>
       </c>
       <c r="C92" t="n">
-        <v>0.9465171610950051</v>
+        <v>0.9431308426953293</v>
       </c>
       <c r="D92" t="n">
-        <v>0.9465171610950051</v>
+        <v>0.9431308426953293</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2839,13 +2839,13 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.0007954118070997441</v>
+        <v>0.0005725201259740853</v>
       </c>
       <c r="C93" t="n">
-        <v>0.9992045881929003</v>
+        <v>0.9994274798740259</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9992045881929003</v>
+        <v>0.9994274798740259</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2865,13 +2865,13 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.04864042421243042</v>
+        <v>0.08791163118607516</v>
       </c>
       <c r="C94" t="n">
-        <v>0.9513595757875696</v>
+        <v>0.9120883688139249</v>
       </c>
       <c r="D94" t="n">
-        <v>0.9513595757875696</v>
+        <v>0.9120883688139249</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2891,13 +2891,13 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.004823250500462173</v>
+        <v>0.005163136155726611</v>
       </c>
       <c r="C95" t="n">
-        <v>0.9951767494995378</v>
+        <v>0.9948368638442734</v>
       </c>
       <c r="D95" t="n">
-        <v>0.9951767494995378</v>
+        <v>0.9948368638442734</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2917,13 +2917,13 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.007313514646383745</v>
+        <v>0.01328464064253287</v>
       </c>
       <c r="C96" t="n">
-        <v>0.9926864853536163</v>
+        <v>0.9867153593574671</v>
       </c>
       <c r="D96" t="n">
-        <v>0.9926864853536163</v>
+        <v>0.9867153593574671</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2943,13 +2943,13 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.7824985358062607</v>
+        <v>0.8135670033910277</v>
       </c>
       <c r="C97" t="n">
-        <v>0.2175014641937393</v>
+        <v>0.1864329966089723</v>
       </c>
       <c r="D97" t="n">
-        <v>0.7824985358062607</v>
+        <v>0.8135670033910277</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>f__Acidaminococcaceae(reject)</t>
+          <t>f__Acidaminococcaceae</t>
         </is>
       </c>
     </row>
@@ -2969,13 +2969,13 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.003086222676988326</v>
+        <v>0.003630802282467482</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9969137773230117</v>
+        <v>0.9963691977175325</v>
       </c>
       <c r="D98" t="n">
-        <v>0.9969137773230117</v>
+        <v>0.9963691977175325</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -2995,13 +2995,13 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.9959420989690783</v>
+        <v>0.9961320455213922</v>
       </c>
       <c r="C99" t="n">
-        <v>0.004057901030921751</v>
+        <v>0.003867954478607724</v>
       </c>
       <c r="D99" t="n">
-        <v>0.9959420989690783</v>
+        <v>0.9961320455213922</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -3021,13 +3021,13 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.998860616825493</v>
+        <v>0.9988156603189654</v>
       </c>
       <c r="C100" t="n">
-        <v>0.001139383174506973</v>
+        <v>0.001184339681034556</v>
       </c>
       <c r="D100" t="n">
-        <v>0.998860616825493</v>
+        <v>0.9988156603189654</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -3047,13 +3047,13 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.9999769035456619</v>
+        <v>0.999979092466404</v>
       </c>
       <c r="C101" t="n">
-        <v>2.309645433805095e-05</v>
+        <v>2.09075335959501e-05</v>
       </c>
       <c r="D101" t="n">
-        <v>0.9999769035456619</v>
+        <v>0.999979092466404</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -3073,13 +3073,13 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.998860616825493</v>
+        <v>0.9988156603189654</v>
       </c>
       <c r="C102" t="n">
-        <v>0.001139383174506973</v>
+        <v>0.001184339681034556</v>
       </c>
       <c r="D102" t="n">
-        <v>0.998860616825493</v>
+        <v>0.9988156603189654</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -3099,13 +3099,13 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.9992164326955545</v>
+        <v>0.9994173304343037</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0007835673044454959</v>
+        <v>0.0005826695656963173</v>
       </c>
       <c r="D103" t="n">
-        <v>0.9992164326955545</v>
+        <v>0.9994173304343037</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -3125,13 +3125,13 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.005892761116080614</v>
+        <v>0.01117657613666034</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9941072388839194</v>
+        <v>0.9888234238633397</v>
       </c>
       <c r="D104" t="n">
-        <v>0.9941072388839194</v>
+        <v>0.9888234238633397</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -3151,13 +3151,13 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.001828694126078778</v>
+        <v>0.004329283316509502</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9981713058739212</v>
+        <v>0.9956707166834905</v>
       </c>
       <c r="D105" t="n">
-        <v>0.9981713058739212</v>
+        <v>0.9956707166834905</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -3177,13 +3177,13 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.0002177084103390792</v>
+        <v>0.0001712692795888815</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9997822915896609</v>
+        <v>0.9998287307204111</v>
       </c>
       <c r="D106" t="n">
-        <v>0.9997822915896609</v>
+        <v>0.9998287307204111</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -3203,13 +3203,13 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.0002757653957550232</v>
+        <v>0.0002353584307248635</v>
       </c>
       <c r="C107" t="n">
-        <v>0.999724234604245</v>
+        <v>0.9997646415692751</v>
       </c>
       <c r="D107" t="n">
-        <v>0.999724234604245</v>
+        <v>0.9997646415692751</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -3229,13 +3229,13 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.01552237518303279</v>
+        <v>0.03225958345316171</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9844776248169672</v>
+        <v>0.9677404165468383</v>
       </c>
       <c r="D108" t="n">
-        <v>0.9844776248169672</v>
+        <v>0.9677404165468383</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -3255,13 +3255,13 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.0004421299105388243</v>
+        <v>0.0003685820905882098</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9995578700894612</v>
+        <v>0.9996314179094118</v>
       </c>
       <c r="D109" t="n">
-        <v>0.9995578700894612</v>
+        <v>0.9996314179094118</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -3281,13 +3281,13 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.0005463845138699019</v>
+        <v>0.0004350618012780583</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9994536154861301</v>
+        <v>0.9995649381987219</v>
       </c>
       <c r="D110" t="n">
-        <v>0.9994536154861301</v>
+        <v>0.9995649381987219</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -3307,13 +3307,13 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.001749519117767551</v>
+        <v>0.001563623346924059</v>
       </c>
       <c r="C111" t="n">
-        <v>0.9982504808822324</v>
+        <v>0.9984363766530759</v>
       </c>
       <c r="D111" t="n">
-        <v>0.9982504808822324</v>
+        <v>0.9984363766530759</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -3333,13 +3333,13 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.0002536117832646623</v>
+        <v>0.0003491223615984529</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9997463882167353</v>
+        <v>0.9996508776384015</v>
       </c>
       <c r="D112" t="n">
-        <v>0.9997463882167353</v>
+        <v>0.9996508776384015</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -3359,13 +3359,13 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.0001848968388142858</v>
+        <v>0.0001621823968169789</v>
       </c>
       <c r="C113" t="n">
-        <v>0.9998151031611857</v>
+        <v>0.999837817603183</v>
       </c>
       <c r="D113" t="n">
-        <v>0.9998151031611857</v>
+        <v>0.999837817603183</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -3385,13 +3385,13 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.04048350438448345</v>
+        <v>0.08396993594114355</v>
       </c>
       <c r="C114" t="n">
-        <v>0.9595164956155166</v>
+        <v>0.9160300640588565</v>
       </c>
       <c r="D114" t="n">
-        <v>0.9595164956155166</v>
+        <v>0.9160300640588565</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -3411,13 +3411,13 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.003988200703157196</v>
+        <v>0.01038811138991658</v>
       </c>
       <c r="C115" t="n">
-        <v>0.9960117992968428</v>
+        <v>0.9896118886100834</v>
       </c>
       <c r="D115" t="n">
-        <v>0.9960117992968428</v>
+        <v>0.9896118886100834</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -3437,13 +3437,13 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.0005961994422650774</v>
+        <v>0.0006488137419491391</v>
       </c>
       <c r="C116" t="n">
-        <v>0.9994038005577349</v>
+        <v>0.9993511862580509</v>
       </c>
       <c r="D116" t="n">
-        <v>0.9994038005577349</v>
+        <v>0.9993511862580509</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -3463,13 +3463,13 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.0008702202200018272</v>
+        <v>0.001105903389624907</v>
       </c>
       <c r="C117" t="n">
-        <v>0.9991297797799982</v>
+        <v>0.9988940966103751</v>
       </c>
       <c r="D117" t="n">
-        <v>0.9991297797799982</v>
+        <v>0.9988940966103751</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -3489,13 +3489,13 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.004473275001738553</v>
+        <v>0.01083457374501096</v>
       </c>
       <c r="C118" t="n">
-        <v>0.9955267249982614</v>
+        <v>0.989165426254989</v>
       </c>
       <c r="D118" t="n">
-        <v>0.9955267249982614</v>
+        <v>0.989165426254989</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -3515,13 +3515,13 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.05557229276384324</v>
+        <v>0.08743574019415468</v>
       </c>
       <c r="C119" t="n">
-        <v>0.9444277072361568</v>
+        <v>0.9125642598058453</v>
       </c>
       <c r="D119" t="n">
-        <v>0.9444277072361568</v>
+        <v>0.9125642598058453</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -3541,13 +3541,13 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.0003376191243362747</v>
+        <v>0.0002491794056490582</v>
       </c>
       <c r="C120" t="n">
-        <v>0.9996623808756637</v>
+        <v>0.9997508205943509</v>
       </c>
       <c r="D120" t="n">
-        <v>0.9996623808756637</v>
+        <v>0.9997508205943509</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -3567,13 +3567,13 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.01446442354310751</v>
+        <v>0.02045878756880026</v>
       </c>
       <c r="C121" t="n">
-        <v>0.9855355764568925</v>
+        <v>0.9795412124311997</v>
       </c>
       <c r="D121" t="n">
-        <v>0.9855355764568925</v>
+        <v>0.9795412124311997</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -3593,13 +3593,13 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.06504375820286856</v>
+        <v>0.09072795527287725</v>
       </c>
       <c r="C122" t="n">
-        <v>0.9349562417971314</v>
+        <v>0.9092720447271228</v>
       </c>
       <c r="D122" t="n">
-        <v>0.9349562417971314</v>
+        <v>0.9092720447271228</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -3619,13 +3619,13 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.05321491922772426</v>
+        <v>0.05540411346257579</v>
       </c>
       <c r="C123" t="n">
-        <v>0.9467850807722757</v>
+        <v>0.9445958865374242</v>
       </c>
       <c r="D123" t="n">
-        <v>0.9467850807722757</v>
+        <v>0.9445958865374242</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -3645,13 +3645,13 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.03856488540285341</v>
+        <v>0.06987017650618765</v>
       </c>
       <c r="C124" t="n">
-        <v>0.9614351145971466</v>
+        <v>0.9301298234938123</v>
       </c>
       <c r="D124" t="n">
-        <v>0.9614351145971466</v>
+        <v>0.9301298234938123</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -3671,13 +3671,13 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.0006392951967875149</v>
+        <v>0.0009827369038190037</v>
       </c>
       <c r="C125" t="n">
-        <v>0.9993607048032125</v>
+        <v>0.999017263096181</v>
       </c>
       <c r="D125" t="n">
-        <v>0.9993607048032125</v>
+        <v>0.999017263096181</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -3697,13 +3697,13 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.09399154740503768</v>
+        <v>0.1963853313660907</v>
       </c>
       <c r="C126" t="n">
-        <v>0.9060084525949623</v>
+        <v>0.8036146686339093</v>
       </c>
       <c r="D126" t="n">
-        <v>0.9060084525949623</v>
+        <v>0.8036146686339093</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -3723,13 +3723,13 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.003099355855702424</v>
+        <v>0.007127521005439008</v>
       </c>
       <c r="C127" t="n">
-        <v>0.9969006441442976</v>
+        <v>0.992872478994561</v>
       </c>
       <c r="D127" t="n">
-        <v>0.9969006441442976</v>
+        <v>0.992872478994561</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -3749,13 +3749,13 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.003556929813496978</v>
+        <v>0.005192241132541686</v>
       </c>
       <c r="C128" t="n">
-        <v>0.996443070186503</v>
+        <v>0.9948077588674583</v>
       </c>
       <c r="D128" t="n">
-        <v>0.996443070186503</v>
+        <v>0.9948077588674583</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -3775,13 +3775,13 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.001829869105601012</v>
+        <v>0.002597928375030478</v>
       </c>
       <c r="C129" t="n">
-        <v>0.998170130894399</v>
+        <v>0.9974020716249695</v>
       </c>
       <c r="D129" t="n">
-        <v>0.998170130894399</v>
+        <v>0.9974020716249695</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -3801,13 +3801,13 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.001538277743990291</v>
+        <v>0.00288010470097555</v>
       </c>
       <c r="C130" t="n">
-        <v>0.9984617222560097</v>
+        <v>0.9971198952990245</v>
       </c>
       <c r="D130" t="n">
-        <v>0.9984617222560097</v>
+        <v>0.9971198952990245</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -3827,13 +3827,13 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.0006142636256867284</v>
+        <v>0.001488097065880378</v>
       </c>
       <c r="C131" t="n">
-        <v>0.9993857363743133</v>
+        <v>0.9985119029341196</v>
       </c>
       <c r="D131" t="n">
-        <v>0.9993857363743133</v>
+        <v>0.9985119029341196</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -3853,13 +3853,13 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.0003208437740372938</v>
+        <v>0.0004124745407241281</v>
       </c>
       <c r="C132" t="n">
-        <v>0.9996791562259627</v>
+        <v>0.9995875254592759</v>
       </c>
       <c r="D132" t="n">
-        <v>0.9996791562259627</v>
+        <v>0.9995875254592759</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -3879,13 +3879,13 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.004592635169597403</v>
+        <v>0.0119879910220696</v>
       </c>
       <c r="C133" t="n">
-        <v>0.9954073648304026</v>
+        <v>0.9880120089779304</v>
       </c>
       <c r="D133" t="n">
-        <v>0.9954073648304026</v>
+        <v>0.9880120089779304</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -3905,13 +3905,13 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.001816879615170963</v>
+        <v>0.003112599308350283</v>
       </c>
       <c r="C134" t="n">
-        <v>0.998183120384829</v>
+        <v>0.9968874006916497</v>
       </c>
       <c r="D134" t="n">
-        <v>0.998183120384829</v>
+        <v>0.9968874006916497</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -3931,13 +3931,13 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.04071840181629705</v>
+        <v>0.04467082549485557</v>
       </c>
       <c r="C135" t="n">
-        <v>0.959281598183703</v>
+        <v>0.9553291745051444</v>
       </c>
       <c r="D135" t="n">
-        <v>0.959281598183703</v>
+        <v>0.9553291745051444</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -3957,13 +3957,13 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.0001606812877997799</v>
+        <v>0.000265128511276802</v>
       </c>
       <c r="C136" t="n">
-        <v>0.9998393187122002</v>
+        <v>0.9997348714887232</v>
       </c>
       <c r="D136" t="n">
-        <v>0.9998393187122002</v>
+        <v>0.9997348714887232</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -3983,13 +3983,13 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.0004296538604627864</v>
+        <v>0.0009840384459517404</v>
       </c>
       <c r="C137" t="n">
-        <v>0.9995703461395372</v>
+        <v>0.9990159615540483</v>
       </c>
       <c r="D137" t="n">
-        <v>0.9995703461395372</v>
+        <v>0.9990159615540483</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -4009,13 +4009,13 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.00140178815099179</v>
+        <v>0.002477496950593294</v>
       </c>
       <c r="C138" t="n">
-        <v>0.9985982118490082</v>
+        <v>0.9975225030494067</v>
       </c>
       <c r="D138" t="n">
-        <v>0.9985982118490082</v>
+        <v>0.9975225030494067</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -4035,13 +4035,13 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.003821196108382163</v>
+        <v>0.008074357571539403</v>
       </c>
       <c r="C139" t="n">
-        <v>0.9961788038916178</v>
+        <v>0.9919256424284606</v>
       </c>
       <c r="D139" t="n">
-        <v>0.9961788038916178</v>
+        <v>0.9919256424284606</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -4061,13 +4061,13 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.000592680273656887</v>
+        <v>0.0007893939140006801</v>
       </c>
       <c r="C140" t="n">
-        <v>0.9994073197263431</v>
+        <v>0.9992106060859993</v>
       </c>
       <c r="D140" t="n">
-        <v>0.9994073197263431</v>
+        <v>0.9992106060859993</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -4087,13 +4087,13 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.002010548839837867</v>
+        <v>0.002195914366605156</v>
       </c>
       <c r="C141" t="n">
-        <v>0.9979894511601621</v>
+        <v>0.9978040856333948</v>
       </c>
       <c r="D141" t="n">
-        <v>0.9979894511601621</v>
+        <v>0.9978040856333948</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -4113,13 +4113,13 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.001634867488198077</v>
+        <v>0.002567242326400487</v>
       </c>
       <c r="C142" t="n">
-        <v>0.9983651325118019</v>
+        <v>0.9974327576735995</v>
       </c>
       <c r="D142" t="n">
-        <v>0.9983651325118019</v>
+        <v>0.9974327576735995</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -4139,13 +4139,13 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.0006536949400670622</v>
+        <v>0.00136438364832947</v>
       </c>
       <c r="C143" t="n">
-        <v>0.9993463050599329</v>
+        <v>0.9986356163516705</v>
       </c>
       <c r="D143" t="n">
-        <v>0.9993463050599329</v>
+        <v>0.9986356163516705</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -4165,13 +4165,13 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.002531675698750457</v>
+        <v>0.00538554189014584</v>
       </c>
       <c r="C144" t="n">
-        <v>0.9974683243012495</v>
+        <v>0.9946144581098542</v>
       </c>
       <c r="D144" t="n">
-        <v>0.9974683243012495</v>
+        <v>0.9946144581098542</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -4191,13 +4191,13 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.001362377726736419</v>
+        <v>0.003303086639341313</v>
       </c>
       <c r="C145" t="n">
-        <v>0.9986376222732636</v>
+        <v>0.9966969133606587</v>
       </c>
       <c r="D145" t="n">
-        <v>0.9986376222732636</v>
+        <v>0.9966969133606587</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -4217,13 +4217,13 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.03555605676830986</v>
+        <v>0.08309670911900546</v>
       </c>
       <c r="C146" t="n">
-        <v>0.9644439432316901</v>
+        <v>0.9169032908809945</v>
       </c>
       <c r="D146" t="n">
-        <v>0.9644439432316901</v>
+        <v>0.9169032908809945</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -4243,13 +4243,13 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.001511346245298473</v>
+        <v>0.004607229402184498</v>
       </c>
       <c r="C147" t="n">
-        <v>0.9984886537547015</v>
+        <v>0.9953927705978155</v>
       </c>
       <c r="D147" t="n">
-        <v>0.9984886537547015</v>
+        <v>0.9953927705978155</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -4269,13 +4269,13 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.0009501067543604691</v>
+        <v>0.001265273149434254</v>
       </c>
       <c r="C148" t="n">
-        <v>0.9990498932456395</v>
+        <v>0.9987347268505657</v>
       </c>
       <c r="D148" t="n">
-        <v>0.9990498932456395</v>
+        <v>0.9987347268505657</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -4295,13 +4295,13 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.002191170026455413</v>
+        <v>0.004915962442375577</v>
       </c>
       <c r="C149" t="n">
-        <v>0.9978088299735446</v>
+        <v>0.9950840375576244</v>
       </c>
       <c r="D149" t="n">
-        <v>0.9978088299735446</v>
+        <v>0.9950840375576244</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -4321,13 +4321,13 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.0008528224970651976</v>
+        <v>0.001001008007904591</v>
       </c>
       <c r="C150" t="n">
-        <v>0.9991471775029348</v>
+        <v>0.9989989919920954</v>
       </c>
       <c r="D150" t="n">
-        <v>0.9991471775029348</v>
+        <v>0.9989989919920954</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -4347,13 +4347,13 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.0003867431737942794</v>
+        <v>0.0006983726653639888</v>
       </c>
       <c r="C151" t="n">
-        <v>0.9996132568262057</v>
+        <v>0.999301627334636</v>
       </c>
       <c r="D151" t="n">
-        <v>0.9996132568262057</v>
+        <v>0.999301627334636</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -4373,13 +4373,13 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.001095914063215409</v>
+        <v>0.00178417881626558</v>
       </c>
       <c r="C152" t="n">
-        <v>0.9989040859367846</v>
+        <v>0.9982158211837344</v>
       </c>
       <c r="D152" t="n">
-        <v>0.9989040859367846</v>
+        <v>0.9982158211837344</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -4399,13 +4399,13 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.001549159957965895</v>
+        <v>0.004435146276191571</v>
       </c>
       <c r="C153" t="n">
-        <v>0.9984508400420341</v>
+        <v>0.9955648537238084</v>
       </c>
       <c r="D153" t="n">
-        <v>0.9984508400420341</v>
+        <v>0.9955648537238084</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -4425,13 +4425,13 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.000575136378506258</v>
+        <v>0.001393065570860385</v>
       </c>
       <c r="C154" t="n">
-        <v>0.9994248636214937</v>
+        <v>0.9986069344291396</v>
       </c>
       <c r="D154" t="n">
-        <v>0.9994248636214937</v>
+        <v>0.9986069344291396</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -4451,13 +4451,13 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.0007616701653937463</v>
+        <v>0.001575387194385991</v>
       </c>
       <c r="C155" t="n">
-        <v>0.9992383298346063</v>
+        <v>0.998424612805614</v>
       </c>
       <c r="D155" t="n">
-        <v>0.9992383298346063</v>
+        <v>0.998424612805614</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -4477,13 +4477,13 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.0003125169413069617</v>
+        <v>0.0006137600488964612</v>
       </c>
       <c r="C156" t="n">
-        <v>0.999687483058693</v>
+        <v>0.9993862399511035</v>
       </c>
       <c r="D156" t="n">
-        <v>0.999687483058693</v>
+        <v>0.9993862399511035</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -4503,13 +4503,13 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.001313735243664627</v>
+        <v>0.002994376180319613</v>
       </c>
       <c r="C157" t="n">
-        <v>0.9986862647563354</v>
+        <v>0.9970056238196804</v>
       </c>
       <c r="D157" t="n">
-        <v>0.9986862647563354</v>
+        <v>0.9970056238196804</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -4529,13 +4529,13 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.001203074748343247</v>
+        <v>0.00266399803815387</v>
       </c>
       <c r="C158" t="n">
-        <v>0.9987969252516568</v>
+        <v>0.9973360019618461</v>
       </c>
       <c r="D158" t="n">
-        <v>0.9987969252516568</v>
+        <v>0.9973360019618461</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -4555,13 +4555,13 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.0009884344205995932</v>
+        <v>0.001943094846158067</v>
       </c>
       <c r="C159" t="n">
-        <v>0.9990115655794004</v>
+        <v>0.9980569051538419</v>
       </c>
       <c r="D159" t="n">
-        <v>0.9990115655794004</v>
+        <v>0.9980569051538419</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -4581,13 +4581,13 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.0007380819680091744</v>
+        <v>0.001514409528044935</v>
       </c>
       <c r="C160" t="n">
-        <v>0.9992619180319908</v>
+        <v>0.9984855904719551</v>
       </c>
       <c r="D160" t="n">
-        <v>0.9992619180319908</v>
+        <v>0.9984855904719551</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -4607,13 +4607,13 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.00276725225036667</v>
+        <v>0.00660867753835459</v>
       </c>
       <c r="C161" t="n">
-        <v>0.9972327477496333</v>
+        <v>0.9933913224616454</v>
       </c>
       <c r="D161" t="n">
-        <v>0.9972327477496333</v>
+        <v>0.9933913224616454</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -4633,13 +4633,13 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.0002855139013657748</v>
+        <v>0.0003027597396336734</v>
       </c>
       <c r="C162" t="n">
-        <v>0.9997144860986342</v>
+        <v>0.9996972402603663</v>
       </c>
       <c r="D162" t="n">
-        <v>0.9997144860986342</v>
+        <v>0.9996972402603663</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -4659,13 +4659,13 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.001425424088153493</v>
+        <v>0.00376253420136774</v>
       </c>
       <c r="C163" t="n">
-        <v>0.9985745759118465</v>
+        <v>0.9962374657986323</v>
       </c>
       <c r="D163" t="n">
-        <v>0.9985745759118465</v>
+        <v>0.9962374657986323</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -4685,13 +4685,13 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.0004108945527304675</v>
+        <v>0.001177924806372577</v>
       </c>
       <c r="C164" t="n">
-        <v>0.9995891054472695</v>
+        <v>0.9988220751936274</v>
       </c>
       <c r="D164" t="n">
-        <v>0.9995891054472695</v>
+        <v>0.9988220751936274</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -4711,13 +4711,13 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.001472551088725571</v>
+        <v>0.002528130147387397</v>
       </c>
       <c r="C165" t="n">
-        <v>0.9985274489112744</v>
+        <v>0.9974718698526126</v>
       </c>
       <c r="D165" t="n">
-        <v>0.9985274489112744</v>
+        <v>0.9974718698526126</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -4737,13 +4737,13 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.0004208928327861239</v>
+        <v>0.0006907904083343075</v>
       </c>
       <c r="C166" t="n">
-        <v>0.9995791071672139</v>
+        <v>0.9993092095916657</v>
       </c>
       <c r="D166" t="n">
-        <v>0.9995791071672139</v>
+        <v>0.9993092095916657</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -4763,13 +4763,13 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.001013451430858292</v>
+        <v>0.001407310750255464</v>
       </c>
       <c r="C167" t="n">
-        <v>0.9989865485691417</v>
+        <v>0.9985926892497445</v>
       </c>
       <c r="D167" t="n">
-        <v>0.9989865485691417</v>
+        <v>0.9985926892497445</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -4789,13 +4789,13 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.001329107912711347</v>
+        <v>0.003026446162144981</v>
       </c>
       <c r="C168" t="n">
-        <v>0.9986708920872887</v>
+        <v>0.996973553837855</v>
       </c>
       <c r="D168" t="n">
-        <v>0.9986708920872887</v>
+        <v>0.996973553837855</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -4815,13 +4815,13 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.0007569830705754788</v>
+        <v>0.001258126059617171</v>
       </c>
       <c r="C169" t="n">
-        <v>0.9992430169294245</v>
+        <v>0.9987418739403828</v>
       </c>
       <c r="D169" t="n">
-        <v>0.9992430169294245</v>
+        <v>0.9987418739403828</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -4841,13 +4841,13 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.001528911044368697</v>
+        <v>0.00243743582928857</v>
       </c>
       <c r="C170" t="n">
-        <v>0.9984710889556313</v>
+        <v>0.9975625641707114</v>
       </c>
       <c r="D170" t="n">
-        <v>0.9984710889556313</v>
+        <v>0.9975625641707114</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -4867,13 +4867,13 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.0003167938822825622</v>
+        <v>0.0005930032241296956</v>
       </c>
       <c r="C171" t="n">
-        <v>0.9996832061177174</v>
+        <v>0.9994069967758703</v>
       </c>
       <c r="D171" t="n">
-        <v>0.9996832061177174</v>
+        <v>0.9994069967758703</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -4893,13 +4893,13 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.0006122049757276704</v>
+        <v>0.001038956329170393</v>
       </c>
       <c r="C172" t="n">
-        <v>0.9993877950242723</v>
+        <v>0.9989610436708296</v>
       </c>
       <c r="D172" t="n">
-        <v>0.9993877950242723</v>
+        <v>0.9989610436708296</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -4919,13 +4919,13 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.0007553302010590014</v>
+        <v>0.001492504080718549</v>
       </c>
       <c r="C173" t="n">
-        <v>0.999244669798941</v>
+        <v>0.9985074959192815</v>
       </c>
       <c r="D173" t="n">
-        <v>0.999244669798941</v>
+        <v>0.9985074959192815</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -4945,13 +4945,13 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.0002945896199751941</v>
+        <v>0.0004213057475819237</v>
       </c>
       <c r="C174" t="n">
-        <v>0.9997054103800248</v>
+        <v>0.9995786942524181</v>
       </c>
       <c r="D174" t="n">
-        <v>0.9997054103800248</v>
+        <v>0.9995786942524181</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -4971,13 +4971,13 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.0003334565780187537</v>
+        <v>0.000514932587656669</v>
       </c>
       <c r="C175" t="n">
-        <v>0.9996665434219812</v>
+        <v>0.9994850674123433</v>
       </c>
       <c r="D175" t="n">
-        <v>0.9996665434219812</v>
+        <v>0.9994850674123433</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -4997,13 +4997,13 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.001307450396538679</v>
+        <v>0.001926074573383674</v>
       </c>
       <c r="C176" t="n">
-        <v>0.9986925496034613</v>
+        <v>0.9980739254266163</v>
       </c>
       <c r="D176" t="n">
-        <v>0.9986925496034613</v>
+        <v>0.9980739254266163</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -5023,13 +5023,13 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.0004302332206338467</v>
+        <v>0.0005926025057724216</v>
       </c>
       <c r="C177" t="n">
-        <v>0.9995697667793662</v>
+        <v>0.9994073974942276</v>
       </c>
       <c r="D177" t="n">
-        <v>0.9995697667793662</v>
+        <v>0.9994073974942276</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -5049,13 +5049,13 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.001510366683080133</v>
+        <v>0.003187896025376614</v>
       </c>
       <c r="C178" t="n">
-        <v>0.9984896333169199</v>
+        <v>0.9968121039746234</v>
       </c>
       <c r="D178" t="n">
-        <v>0.9984896333169199</v>
+        <v>0.9968121039746234</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -5075,13 +5075,13 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.0008153463216726831</v>
+        <v>0.001263860349627333</v>
       </c>
       <c r="C179" t="n">
-        <v>0.9991846536783273</v>
+        <v>0.9987361396503727</v>
       </c>
       <c r="D179" t="n">
-        <v>0.9991846536783273</v>
+        <v>0.9987361396503727</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -5101,13 +5101,13 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.0008119504716508352</v>
+        <v>0.001749262427740317</v>
       </c>
       <c r="C180" t="n">
-        <v>0.9991880495283492</v>
+        <v>0.9982507375722597</v>
       </c>
       <c r="D180" t="n">
-        <v>0.9991880495283492</v>
+        <v>0.9982507375722597</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -5127,13 +5127,13 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.000274165500506296</v>
+        <v>0.000590294871950503</v>
       </c>
       <c r="C181" t="n">
-        <v>0.9997258344994937</v>
+        <v>0.9994097051280495</v>
       </c>
       <c r="D181" t="n">
-        <v>0.9997258344994937</v>
+        <v>0.9994097051280495</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -5153,13 +5153,13 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.0001867987173448382</v>
+        <v>0.0001096949048240425</v>
       </c>
       <c r="C182" t="n">
-        <v>0.9998132012826552</v>
+        <v>0.999890305095176</v>
       </c>
       <c r="D182" t="n">
-        <v>0.9998132012826552</v>
+        <v>0.999890305095176</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -5179,13 +5179,13 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.02312361813766961</v>
+        <v>0.02382336659074635</v>
       </c>
       <c r="C183" t="n">
-        <v>0.9768763818623304</v>
+        <v>0.9761766334092536</v>
       </c>
       <c r="D183" t="n">
-        <v>0.9768763818623304</v>
+        <v>0.9761766334092536</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -5205,13 +5205,13 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0.08334869413419121</v>
+        <v>0.1074597812679262</v>
       </c>
       <c r="C184" t="n">
-        <v>0.9166513058658088</v>
+        <v>0.8925402187320738</v>
       </c>
       <c r="D184" t="n">
-        <v>0.9166513058658088</v>
+        <v>0.8925402187320738</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -5231,13 +5231,13 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.01821541714185737</v>
+        <v>0.03552372755925903</v>
       </c>
       <c r="C185" t="n">
-        <v>0.9817845828581426</v>
+        <v>0.964476272440741</v>
       </c>
       <c r="D185" t="n">
-        <v>0.9817845828581426</v>
+        <v>0.964476272440741</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -5257,13 +5257,13 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.0009970232739884288</v>
+        <v>0.0006263716116203799</v>
       </c>
       <c r="C186" t="n">
-        <v>0.9990029767260116</v>
+        <v>0.9993736283883796</v>
       </c>
       <c r="D186" t="n">
-        <v>0.9990029767260116</v>
+        <v>0.9993736283883796</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -5283,13 +5283,13 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.01118578253822755</v>
+        <v>0.02692681032151722</v>
       </c>
       <c r="C187" t="n">
-        <v>0.9888142174617724</v>
+        <v>0.9730731896784828</v>
       </c>
       <c r="D187" t="n">
-        <v>0.9888142174617724</v>
+        <v>0.9730731896784828</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -5309,13 +5309,13 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.09692061206516522</v>
+        <v>0.1302293964884401</v>
       </c>
       <c r="C188" t="n">
-        <v>0.9030793879348348</v>
+        <v>0.8697706035115599</v>
       </c>
       <c r="D188" t="n">
-        <v>0.9030793879348348</v>
+        <v>0.8697706035115599</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -5335,13 +5335,13 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0.0002631945254679691</v>
+        <v>0.0002556425389822481</v>
       </c>
       <c r="C189" t="n">
-        <v>0.999736805474532</v>
+        <v>0.9997443574610178</v>
       </c>
       <c r="D189" t="n">
-        <v>0.999736805474532</v>
+        <v>0.9997443574610178</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -5361,13 +5361,13 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0.07451443341156205</v>
+        <v>0.1314102192488882</v>
       </c>
       <c r="C190" t="n">
-        <v>0.9254855665884379</v>
+        <v>0.8685897807511118</v>
       </c>
       <c r="D190" t="n">
-        <v>0.9254855665884379</v>
+        <v>0.8685897807511118</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -5387,13 +5387,13 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.04787781952515601</v>
+        <v>0.05625416689388252</v>
       </c>
       <c r="C191" t="n">
-        <v>0.952122180474844</v>
+        <v>0.9437458331061175</v>
       </c>
       <c r="D191" t="n">
-        <v>0.952122180474844</v>
+        <v>0.9437458331061175</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -5413,13 +5413,13 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.001938695850091876</v>
+        <v>0.004259963457936666</v>
       </c>
       <c r="C192" t="n">
-        <v>0.9980613041499081</v>
+        <v>0.9957400365420633</v>
       </c>
       <c r="D192" t="n">
-        <v>0.9980613041499081</v>
+        <v>0.9957400365420633</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -5439,13 +5439,13 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0.02915356788667933</v>
+        <v>0.06042135327380083</v>
       </c>
       <c r="C193" t="n">
-        <v>0.9708464321133207</v>
+        <v>0.9395786467261992</v>
       </c>
       <c r="D193" t="n">
-        <v>0.9708464321133207</v>
+        <v>0.9395786467261992</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -5465,13 +5465,13 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0.0001323723651077691</v>
+        <v>9.305429329853343e-05</v>
       </c>
       <c r="C194" t="n">
-        <v>0.9998676276348922</v>
+        <v>0.9999069457067015</v>
       </c>
       <c r="D194" t="n">
-        <v>0.9998676276348922</v>
+        <v>0.9999069457067015</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0.06610050280344959</v>
+        <v>0.0941692531311478</v>
       </c>
       <c r="C195" t="n">
-        <v>0.9338994971965504</v>
+        <v>0.9058307468688522</v>
       </c>
       <c r="D195" t="n">
-        <v>0.9338994971965504</v>
+        <v>0.9058307468688522</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -5517,13 +5517,13 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0.07451443341156205</v>
+        <v>0.1314102192488882</v>
       </c>
       <c r="C196" t="n">
-        <v>0.9254855665884379</v>
+        <v>0.8685897807511118</v>
       </c>
       <c r="D196" t="n">
-        <v>0.9254855665884379</v>
+        <v>0.8685897807511118</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -5543,13 +5543,13 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0.05090579245451265</v>
+        <v>0.09667585481969088</v>
       </c>
       <c r="C197" t="n">
-        <v>0.9490942075454873</v>
+        <v>0.9033241451803091</v>
       </c>
       <c r="D197" t="n">
-        <v>0.9490942075454873</v>
+        <v>0.9033241451803091</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -5569,13 +5569,13 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.04325820720027596</v>
+        <v>0.06769966616205159</v>
       </c>
       <c r="C198" t="n">
-        <v>0.956741792799724</v>
+        <v>0.9323003338379484</v>
       </c>
       <c r="D198" t="n">
-        <v>0.956741792799724</v>
+        <v>0.9323003338379484</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -5595,13 +5595,13 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0.09477710766756052</v>
+        <v>0.1531651375492716</v>
       </c>
       <c r="C199" t="n">
-        <v>0.9052228923324395</v>
+        <v>0.8468348624507284</v>
       </c>
       <c r="D199" t="n">
-        <v>0.9052228923324395</v>
+        <v>0.8468348624507284</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -5621,13 +5621,13 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0.1142511242719799</v>
+        <v>0.1884687910171723</v>
       </c>
       <c r="C200" t="n">
-        <v>0.8857488757280201</v>
+        <v>0.8115312089828277</v>
       </c>
       <c r="D200" t="n">
-        <v>0.8857488757280201</v>
+        <v>0.8115312089828277</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0.01595813118174727</v>
+        <v>0.01691749562468492</v>
       </c>
       <c r="C201" t="n">
-        <v>0.9840418688182527</v>
+        <v>0.9830825043753151</v>
       </c>
       <c r="D201" t="n">
-        <v>0.9840418688182527</v>
+        <v>0.9830825043753151</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -5673,13 +5673,13 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0.04600814328839475</v>
+        <v>0.08266851213537807</v>
       </c>
       <c r="C202" t="n">
-        <v>0.9539918567116052</v>
+        <v>0.9173314878646219</v>
       </c>
       <c r="D202" t="n">
-        <v>0.9539918567116052</v>
+        <v>0.9173314878646219</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -5699,13 +5699,13 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0.09135990274838189</v>
+        <v>0.1735889286382385</v>
       </c>
       <c r="C203" t="n">
-        <v>0.9086400972516181</v>
+        <v>0.8264110713617615</v>
       </c>
       <c r="D203" t="n">
-        <v>0.9086400972516181</v>
+        <v>0.8264110713617615</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -5725,13 +5725,13 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0.0205194125958803</v>
+        <v>0.0438610000113131</v>
       </c>
       <c r="C204" t="n">
-        <v>0.9794805874041197</v>
+        <v>0.9561389999886869</v>
       </c>
       <c r="D204" t="n">
-        <v>0.9794805874041197</v>
+        <v>0.9561389999886869</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -5751,13 +5751,13 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0.02533423415391612</v>
+        <v>0.03614316739442547</v>
       </c>
       <c r="C205" t="n">
-        <v>0.9746657658460839</v>
+        <v>0.9638568326055745</v>
       </c>
       <c r="D205" t="n">
-        <v>0.9746657658460839</v>
+        <v>0.9638568326055745</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -5777,13 +5777,13 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0.07288461301003968</v>
+        <v>0.1230769136323261</v>
       </c>
       <c r="C206" t="n">
-        <v>0.9271153869899603</v>
+        <v>0.8769230863676739</v>
       </c>
       <c r="D206" t="n">
-        <v>0.9271153869899603</v>
+        <v>0.8769230863676739</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -5803,13 +5803,13 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0.08066142052834391</v>
+        <v>0.1394286726869456</v>
       </c>
       <c r="C207" t="n">
-        <v>0.9193385794716561</v>
+        <v>0.8605713273130545</v>
       </c>
       <c r="D207" t="n">
-        <v>0.9193385794716561</v>
+        <v>0.8605713273130545</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -5829,13 +5829,13 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0.07038210898996045</v>
+        <v>0.1201886108317738</v>
       </c>
       <c r="C208" t="n">
-        <v>0.9296178910100396</v>
+        <v>0.8798113891682262</v>
       </c>
       <c r="D208" t="n">
-        <v>0.9296178910100396</v>
+        <v>0.8798113891682262</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -5855,13 +5855,13 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.07049914285110581</v>
+        <v>0.1190807764748923</v>
       </c>
       <c r="C209" t="n">
-        <v>0.9295008571488942</v>
+        <v>0.8809192235251077</v>
       </c>
       <c r="D209" t="n">
-        <v>0.9295008571488942</v>
+        <v>0.8809192235251077</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -5881,13 +5881,13 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0.001414868288015292</v>
+        <v>0.001689524055680347</v>
       </c>
       <c r="C210" t="n">
-        <v>0.9985851317119847</v>
+        <v>0.9983104759443197</v>
       </c>
       <c r="D210" t="n">
-        <v>0.9985851317119847</v>
+        <v>0.9983104759443197</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -5907,13 +5907,13 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0.09692061206516522</v>
+        <v>0.1302293964884401</v>
       </c>
       <c r="C211" t="n">
-        <v>0.9030793879348348</v>
+        <v>0.8697706035115599</v>
       </c>
       <c r="D211" t="n">
-        <v>0.9030793879348348</v>
+        <v>0.8697706035115599</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -5933,13 +5933,13 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0.05745018172867478</v>
+        <v>0.1060314055406125</v>
       </c>
       <c r="C212" t="n">
-        <v>0.9425498182713252</v>
+        <v>0.8939685944593875</v>
       </c>
       <c r="D212" t="n">
-        <v>0.9425498182713252</v>
+        <v>0.8939685944593875</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -5959,13 +5959,13 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0.02964231922309923</v>
+        <v>0.03599052596434826</v>
       </c>
       <c r="C213" t="n">
-        <v>0.9703576807769008</v>
+        <v>0.9640094740356517</v>
       </c>
       <c r="D213" t="n">
-        <v>0.9703576807769008</v>
+        <v>0.9640094740356517</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -5985,13 +5985,13 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0.05359366319224179</v>
+        <v>0.09371047276468449</v>
       </c>
       <c r="C214" t="n">
-        <v>0.9464063368077583</v>
+        <v>0.9062895272353155</v>
       </c>
       <c r="D214" t="n">
-        <v>0.9464063368077583</v>
+        <v>0.9062895272353155</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -6011,13 +6011,13 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0.07077469482211296</v>
+        <v>0.1626790368481033</v>
       </c>
       <c r="C215" t="n">
-        <v>0.929225305177887</v>
+        <v>0.8373209631518967</v>
       </c>
       <c r="D215" t="n">
-        <v>0.929225305177887</v>
+        <v>0.8373209631518967</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -6037,13 +6037,13 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0.02122922554239515</v>
+        <v>0.02774749701383294</v>
       </c>
       <c r="C216" t="n">
-        <v>0.9787707744576049</v>
+        <v>0.9722525029861671</v>
       </c>
       <c r="D216" t="n">
-        <v>0.9787707744576049</v>
+        <v>0.9722525029861671</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -6063,13 +6063,13 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0.03946718977237762</v>
+        <v>0.03567963579798061</v>
       </c>
       <c r="C217" t="n">
-        <v>0.9605328102276224</v>
+        <v>0.9643203642020194</v>
       </c>
       <c r="D217" t="n">
-        <v>0.9605328102276224</v>
+        <v>0.9643203642020194</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -6089,13 +6089,13 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0.05559305567345996</v>
+        <v>0.1347802785990342</v>
       </c>
       <c r="C218" t="n">
-        <v>0.94440694432654</v>
+        <v>0.8652197214009658</v>
       </c>
       <c r="D218" t="n">
-        <v>0.94440694432654</v>
+        <v>0.8652197214009658</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -6115,13 +6115,13 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0.0005781207555862755</v>
+        <v>0.0005221756300969327</v>
       </c>
       <c r="C219" t="n">
-        <v>0.9994218792444137</v>
+        <v>0.9994778243699031</v>
       </c>
       <c r="D219" t="n">
-        <v>0.9994218792444137</v>
+        <v>0.9994778243699031</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -6141,13 +6141,13 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0.04271255155168407</v>
+        <v>0.08819003049373453</v>
       </c>
       <c r="C220" t="n">
-        <v>0.9572874484483159</v>
+        <v>0.9118099695062655</v>
       </c>
       <c r="D220" t="n">
-        <v>0.9572874484483159</v>
+        <v>0.9118099695062655</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -6167,13 +6167,13 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0.07668936720248098</v>
+        <v>0.1305714430448918</v>
       </c>
       <c r="C221" t="n">
-        <v>0.923310632797519</v>
+        <v>0.8694285569551082</v>
       </c>
       <c r="D221" t="n">
-        <v>0.923310632797519</v>
+        <v>0.8694285569551082</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -6193,13 +6193,13 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0.0727385803255578</v>
+        <v>0.1534274827080581</v>
       </c>
       <c r="C222" t="n">
-        <v>0.9272614196744422</v>
+        <v>0.8465725172919419</v>
       </c>
       <c r="D222" t="n">
-        <v>0.9272614196744422</v>
+        <v>0.8465725172919419</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -6219,13 +6219,13 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0.03006171404236269</v>
+        <v>0.05933055226932782</v>
       </c>
       <c r="C223" t="n">
-        <v>0.9699382859576373</v>
+        <v>0.9406694477306722</v>
       </c>
       <c r="D223" t="n">
-        <v>0.9699382859576373</v>
+        <v>0.9406694477306722</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -6245,13 +6245,13 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0.0001484707042790356</v>
+        <v>9.927831966138891e-05</v>
       </c>
       <c r="C224" t="n">
-        <v>0.999851529295721</v>
+        <v>0.9999007216803386</v>
       </c>
       <c r="D224" t="n">
-        <v>0.999851529295721</v>
+        <v>0.9999007216803386</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -6271,13 +6271,13 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0.05588722490077513</v>
+        <v>0.09484456459436152</v>
       </c>
       <c r="C225" t="n">
-        <v>0.9441127750992249</v>
+        <v>0.9051554354056385</v>
       </c>
       <c r="D225" t="n">
-        <v>0.9441127750992249</v>
+        <v>0.9051554354056385</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -6297,13 +6297,13 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>0.02435453455858705</v>
+        <v>0.04705756748547185</v>
       </c>
       <c r="C226" t="n">
-        <v>0.975645465441413</v>
+        <v>0.9529424325145281</v>
       </c>
       <c r="D226" t="n">
-        <v>0.975645465441413</v>
+        <v>0.9529424325145281</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -6323,13 +6323,13 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0.08744398368268692</v>
+        <v>0.1300321163419909</v>
       </c>
       <c r="C227" t="n">
-        <v>0.9125560163173131</v>
+        <v>0.8699678836580091</v>
       </c>
       <c r="D227" t="n">
-        <v>0.9125560163173131</v>
+        <v>0.8699678836580091</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -6349,13 +6349,13 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>0.04609713774291836</v>
+        <v>0.07136140427833537</v>
       </c>
       <c r="C228" t="n">
-        <v>0.9539028622570817</v>
+        <v>0.9286385957216646</v>
       </c>
       <c r="D228" t="n">
-        <v>0.9539028622570817</v>
+        <v>0.9286385957216646</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -6375,13 +6375,13 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0.002339086661132916</v>
+        <v>0.002426049965738697</v>
       </c>
       <c r="C229" t="n">
-        <v>0.9976609133388671</v>
+        <v>0.9975739500342613</v>
       </c>
       <c r="D229" t="n">
-        <v>0.9976609133388671</v>
+        <v>0.9975739500342613</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -6401,13 +6401,13 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>0.03503843018197106</v>
+        <v>0.0623590727389095</v>
       </c>
       <c r="C230" t="n">
-        <v>0.9649615698180291</v>
+        <v>0.9376409272610905</v>
       </c>
       <c r="D230" t="n">
-        <v>0.9649615698180291</v>
+        <v>0.9376409272610905</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -6427,13 +6427,13 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0.0711122721833094</v>
+        <v>0.09756748562337103</v>
       </c>
       <c r="C231" t="n">
-        <v>0.9288877278166906</v>
+        <v>0.902432514376629</v>
       </c>
       <c r="D231" t="n">
-        <v>0.9288877278166906</v>
+        <v>0.902432514376629</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -6453,13 +6453,13 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0.03382999527334207</v>
+        <v>0.06488058030355992</v>
       </c>
       <c r="C232" t="n">
-        <v>0.9661700047266579</v>
+        <v>0.9351194196964401</v>
       </c>
       <c r="D232" t="n">
-        <v>0.9661700047266579</v>
+        <v>0.9351194196964401</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -6479,13 +6479,13 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0.001814719113031216</v>
+        <v>0.002405476895332326</v>
       </c>
       <c r="C233" t="n">
-        <v>0.9981852808869688</v>
+        <v>0.9975945231046677</v>
       </c>
       <c r="D233" t="n">
-        <v>0.9981852808869688</v>
+        <v>0.9975945231046677</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -6505,13 +6505,13 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0.001814719113031216</v>
+        <v>0.002405476895332326</v>
       </c>
       <c r="C234" t="n">
-        <v>0.9981852808869688</v>
+        <v>0.9975945231046677</v>
       </c>
       <c r="D234" t="n">
-        <v>0.9981852808869688</v>
+        <v>0.9975945231046677</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -6531,13 +6531,13 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0.00138339481764671</v>
+        <v>0.004491284426514475</v>
       </c>
       <c r="C235" t="n">
-        <v>0.9986166051823533</v>
+        <v>0.9955087155734855</v>
       </c>
       <c r="D235" t="n">
-        <v>0.9986166051823533</v>
+        <v>0.9955087155734855</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -6557,13 +6557,13 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0.003386714976580829</v>
+        <v>0.007817965973146768</v>
       </c>
       <c r="C236" t="n">
-        <v>0.9966132850234192</v>
+        <v>0.9921820340268532</v>
       </c>
       <c r="D236" t="n">
-        <v>0.9966132850234192</v>
+        <v>0.9921820340268532</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -6583,13 +6583,13 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>0.00434043696068831</v>
+        <v>0.008488784969333807</v>
       </c>
       <c r="C237" t="n">
-        <v>0.9956595630393117</v>
+        <v>0.9915112150306662</v>
       </c>
       <c r="D237" t="n">
-        <v>0.9956595630393117</v>
+        <v>0.9915112150306662</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -6609,13 +6609,13 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>0.001282050101547139</v>
+        <v>0.001593028215994718</v>
       </c>
       <c r="C238" t="n">
-        <v>0.9987179498984529</v>
+        <v>0.9984069717840053</v>
       </c>
       <c r="D238" t="n">
-        <v>0.9987179498984529</v>
+        <v>0.9984069717840053</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -6635,13 +6635,13 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>0.0003106074298458994</v>
+        <v>0.0004547609420433308</v>
       </c>
       <c r="C239" t="n">
-        <v>0.9996893925701541</v>
+        <v>0.9995452390579567</v>
       </c>
       <c r="D239" t="n">
-        <v>0.9996893925701541</v>
+        <v>0.9995452390579567</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -6661,13 +6661,13 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0.001298721778345779</v>
+        <v>0.00294259257233831</v>
       </c>
       <c r="C240" t="n">
-        <v>0.9987012782216542</v>
+        <v>0.9970574074276617</v>
       </c>
       <c r="D240" t="n">
-        <v>0.9987012782216542</v>
+        <v>0.9970574074276617</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -6687,13 +6687,13 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0.0008756069616232544</v>
+        <v>0.001505264420954</v>
       </c>
       <c r="C241" t="n">
-        <v>0.9991243930383767</v>
+        <v>0.998494735579046</v>
       </c>
       <c r="D241" t="n">
-        <v>0.9991243930383767</v>
+        <v>0.998494735579046</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -6713,13 +6713,13 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>0.0005304500091228848</v>
+        <v>0.0005084970278621537</v>
       </c>
       <c r="C242" t="n">
-        <v>0.9994695499908771</v>
+        <v>0.9994915029721378</v>
       </c>
       <c r="D242" t="n">
-        <v>0.9994695499908771</v>
+        <v>0.9994915029721378</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -6739,13 +6739,13 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>0.000520093353040485</v>
+        <v>0.0005356777733875884</v>
       </c>
       <c r="C243" t="n">
-        <v>0.9994799066469595</v>
+        <v>0.9994643222266124</v>
       </c>
       <c r="D243" t="n">
-        <v>0.9994799066469595</v>
+        <v>0.9994643222266124</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -6765,13 +6765,13 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>0.0006508386450618797</v>
+        <v>0.001139296268417578</v>
       </c>
       <c r="C244" t="n">
-        <v>0.9993491613549381</v>
+        <v>0.9988607037315824</v>
       </c>
       <c r="D244" t="n">
-        <v>0.9993491613549381</v>
+        <v>0.9988607037315824</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -6791,13 +6791,13 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>0.001062756403082954</v>
+        <v>0.001960958531442958</v>
       </c>
       <c r="C245" t="n">
-        <v>0.998937243596917</v>
+        <v>0.998039041468557</v>
       </c>
       <c r="D245" t="n">
-        <v>0.998937243596917</v>
+        <v>0.998039041468557</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -6817,13 +6817,13 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0.0008631629685293962</v>
+        <v>0.00116298019051142</v>
       </c>
       <c r="C246" t="n">
-        <v>0.9991368370314706</v>
+        <v>0.9988370198094886</v>
       </c>
       <c r="D246" t="n">
-        <v>0.9991368370314706</v>
+        <v>0.9988370198094886</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -6843,13 +6843,13 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0.0009235532471468799</v>
+        <v>0.001507277524522621</v>
       </c>
       <c r="C247" t="n">
-        <v>0.9990764467528531</v>
+        <v>0.9984927224754774</v>
       </c>
       <c r="D247" t="n">
-        <v>0.9990764467528531</v>
+        <v>0.9984927224754774</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -6869,13 +6869,13 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>0.0004625286368843406</v>
+        <v>0.0006458117012928533</v>
       </c>
       <c r="C248" t="n">
-        <v>0.9995374713631157</v>
+        <v>0.9993541882987071</v>
       </c>
       <c r="D248" t="n">
-        <v>0.9995374713631157</v>
+        <v>0.9993541882987071</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -6895,13 +6895,13 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>0.000467117063251421</v>
+        <v>0.0007285016772150544</v>
       </c>
       <c r="C249" t="n">
-        <v>0.9995328829367486</v>
+        <v>0.9992714983227849</v>
       </c>
       <c r="D249" t="n">
-        <v>0.9995328829367486</v>
+        <v>0.9992714983227849</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -6921,13 +6921,13 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>0.0004031214108816128</v>
+        <v>0.0005533808856517108</v>
       </c>
       <c r="C250" t="n">
-        <v>0.9995968785891184</v>
+        <v>0.9994466191143483</v>
       </c>
       <c r="D250" t="n">
-        <v>0.9995968785891184</v>
+        <v>0.9994466191143483</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -6947,13 +6947,13 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>0.001618137249114415</v>
+        <v>0.002636857827787775</v>
       </c>
       <c r="C251" t="n">
-        <v>0.9983818627508856</v>
+        <v>0.9973631421722122</v>
       </c>
       <c r="D251" t="n">
-        <v>0.9983818627508856</v>
+        <v>0.9973631421722122</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -6973,13 +6973,13 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>0.00320205807180951</v>
+        <v>0.004614773638316971</v>
       </c>
       <c r="C252" t="n">
-        <v>0.9967979419281905</v>
+        <v>0.995385226361683</v>
       </c>
       <c r="D252" t="n">
-        <v>0.9967979419281905</v>
+        <v>0.995385226361683</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -6999,13 +6999,13 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>0.0007125317397440599</v>
+        <v>0.001422153434633699</v>
       </c>
       <c r="C253" t="n">
-        <v>0.9992874682602559</v>
+        <v>0.9985778465653663</v>
       </c>
       <c r="D253" t="n">
-        <v>0.9992874682602559</v>
+        <v>0.9985778465653663</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -7025,13 +7025,13 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>0.00118626772299868</v>
+        <v>0.004096797393274954</v>
       </c>
       <c r="C254" t="n">
-        <v>0.9988137322770013</v>
+        <v>0.995903202606725</v>
       </c>
       <c r="D254" t="n">
-        <v>0.9988137322770013</v>
+        <v>0.995903202606725</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
@@ -7051,13 +7051,13 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>0.0372459661212432</v>
+        <v>0.06371885776442732</v>
       </c>
       <c r="C255" t="n">
-        <v>0.9627540338787568</v>
+        <v>0.9362811422355727</v>
       </c>
       <c r="D255" t="n">
-        <v>0.9627540338787568</v>
+        <v>0.9362811422355727</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -7077,13 +7077,13 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>0.01958383370200123</v>
+        <v>0.03245332378913635</v>
       </c>
       <c r="C256" t="n">
-        <v>0.9804161662979988</v>
+        <v>0.9675466762108637</v>
       </c>
       <c r="D256" t="n">
-        <v>0.9804161662979988</v>
+        <v>0.9675466762108637</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -7103,13 +7103,13 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0.001784994660353756</v>
+        <v>0.003931277752391438</v>
       </c>
       <c r="C257" t="n">
-        <v>0.9982150053396462</v>
+        <v>0.9960687222476086</v>
       </c>
       <c r="D257" t="n">
-        <v>0.9982150053396462</v>
+        <v>0.9960687222476086</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -7129,13 +7129,13 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>0.001592752003124254</v>
+        <v>0.004634192997337805</v>
       </c>
       <c r="C258" t="n">
-        <v>0.9984072479968757</v>
+        <v>0.9953658070026622</v>
       </c>
       <c r="D258" t="n">
-        <v>0.9984072479968757</v>
+        <v>0.9953658070026622</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -7155,13 +7155,13 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>0.001391699826039039</v>
+        <v>0.002659394163847528</v>
       </c>
       <c r="C259" t="n">
-        <v>0.998608300173961</v>
+        <v>0.9973406058361525</v>
       </c>
       <c r="D259" t="n">
-        <v>0.998608300173961</v>
+        <v>0.9973406058361525</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -7181,13 +7181,13 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>0.0005562043367549618</v>
+        <v>0.00114921810552604</v>
       </c>
       <c r="C260" t="n">
-        <v>0.999443795663245</v>
+        <v>0.998850781894474</v>
       </c>
       <c r="D260" t="n">
-        <v>0.999443795663245</v>
+        <v>0.998850781894474</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -7207,13 +7207,13 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0.001391699826039039</v>
+        <v>0.002659394163847528</v>
       </c>
       <c r="C261" t="n">
-        <v>0.998608300173961</v>
+        <v>0.9973406058361525</v>
       </c>
       <c r="D261" t="n">
-        <v>0.998608300173961</v>
+        <v>0.9973406058361525</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -7233,13 +7233,13 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0.001603508430036427</v>
+        <v>0.00273028450153634</v>
       </c>
       <c r="C262" t="n">
-        <v>0.9983964915699636</v>
+        <v>0.9972697154984637</v>
       </c>
       <c r="D262" t="n">
-        <v>0.9983964915699636</v>
+        <v>0.9972697154984637</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -7259,13 +7259,13 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>0.001306100361121887</v>
+        <v>0.003398637236115332</v>
       </c>
       <c r="C263" t="n">
-        <v>0.9986938996388781</v>
+        <v>0.9966013627638847</v>
       </c>
       <c r="D263" t="n">
-        <v>0.9986938996388781</v>
+        <v>0.9966013627638847</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -7285,13 +7285,13 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>0.001701449557001355</v>
+        <v>0.002932437155515388</v>
       </c>
       <c r="C264" t="n">
-        <v>0.9982985504429986</v>
+        <v>0.9970675628444846</v>
       </c>
       <c r="D264" t="n">
-        <v>0.9982985504429986</v>
+        <v>0.9970675628444846</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -7311,13 +7311,13 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>0.003258106982900078</v>
+        <v>0.00551555277812299</v>
       </c>
       <c r="C265" t="n">
-        <v>0.9967418930170999</v>
+        <v>0.994484447221877</v>
       </c>
       <c r="D265" t="n">
-        <v>0.9967418930170999</v>
+        <v>0.994484447221877</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -7337,13 +7337,13 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>0.001478621134916036</v>
+        <v>0.002209513681364461</v>
       </c>
       <c r="C266" t="n">
-        <v>0.998521378865084</v>
+        <v>0.9977904863186355</v>
       </c>
       <c r="D266" t="n">
-        <v>0.998521378865084</v>
+        <v>0.9977904863186355</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -7363,13 +7363,13 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>0.002235966999601824</v>
+        <v>0.00512685373676447</v>
       </c>
       <c r="C267" t="n">
-        <v>0.9977640330003982</v>
+        <v>0.9948731462632355</v>
       </c>
       <c r="D267" t="n">
-        <v>0.9977640330003982</v>
+        <v>0.9948731462632355</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -7389,13 +7389,13 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>0.001237511788096279</v>
+        <v>0.001862258274407225</v>
       </c>
       <c r="C268" t="n">
-        <v>0.9987624882119037</v>
+        <v>0.9981377417255928</v>
       </c>
       <c r="D268" t="n">
-        <v>0.9987624882119037</v>
+        <v>0.9981377417255928</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -7415,13 +7415,13 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>0.06979887430745935</v>
+        <v>0.1298260469187967</v>
       </c>
       <c r="C269" t="n">
-        <v>0.9302011256925407</v>
+        <v>0.8701739530812033</v>
       </c>
       <c r="D269" t="n">
-        <v>0.9302011256925407</v>
+        <v>0.8701739530812033</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
@@ -7441,13 +7441,13 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>0.03641346516180988</v>
+        <v>0.06262086789514776</v>
       </c>
       <c r="C270" t="n">
-        <v>0.9635865348381901</v>
+        <v>0.9373791321048522</v>
       </c>
       <c r="D270" t="n">
-        <v>0.9635865348381901</v>
+        <v>0.9373791321048522</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -7467,13 +7467,13 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>0.0005739763145156118</v>
+        <v>0.001156289608018835</v>
       </c>
       <c r="C271" t="n">
-        <v>0.9994260236854844</v>
+        <v>0.9988437103919812</v>
       </c>
       <c r="D271" t="n">
-        <v>0.9994260236854844</v>
+        <v>0.9988437103919812</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -7493,13 +7493,13 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>0.003562928968976586</v>
+        <v>0.008082002352897355</v>
       </c>
       <c r="C272" t="n">
-        <v>0.9964370710310234</v>
+        <v>0.9919179976471026</v>
       </c>
       <c r="D272" t="n">
-        <v>0.9964370710310234</v>
+        <v>0.9919179976471026</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
@@ -7519,13 +7519,13 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>0.02387546584315403</v>
+        <v>0.05420548290951333</v>
       </c>
       <c r="C273" t="n">
-        <v>0.976124534156846</v>
+        <v>0.9457945170904867</v>
       </c>
       <c r="D273" t="n">
-        <v>0.976124534156846</v>
+        <v>0.9457945170904867</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>0.03666067574743948</v>
+        <v>0.06011715586607891</v>
       </c>
       <c r="C274" t="n">
-        <v>0.9633393242525605</v>
+        <v>0.9398828441339211</v>
       </c>
       <c r="D274" t="n">
-        <v>0.9633393242525605</v>
+        <v>0.9398828441339211</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
@@ -7571,13 +7571,13 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>0.0378807895859895</v>
+        <v>0.08040740083248243</v>
       </c>
       <c r="C275" t="n">
-        <v>0.9621192104140105</v>
+        <v>0.9195925991675176</v>
       </c>
       <c r="D275" t="n">
-        <v>0.9621192104140105</v>
+        <v>0.9195925991675176</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -7597,13 +7597,13 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>0.04380616856068442</v>
+        <v>0.0810740674342697</v>
       </c>
       <c r="C276" t="n">
-        <v>0.9561938314393156</v>
+        <v>0.9189259325657303</v>
       </c>
       <c r="D276" t="n">
-        <v>0.9561938314393156</v>
+        <v>0.9189259325657303</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
@@ -7623,13 +7623,13 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>0.03448388722266893</v>
+        <v>0.08860106546349145</v>
       </c>
       <c r="C277" t="n">
-        <v>0.9655161127773311</v>
+        <v>0.9113989345365086</v>
       </c>
       <c r="D277" t="n">
-        <v>0.9655161127773311</v>
+        <v>0.9113989345365086</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -7649,13 +7649,13 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>0.06037987968236447</v>
+        <v>0.09643401824600573</v>
       </c>
       <c r="C278" t="n">
-        <v>0.9396201203176355</v>
+        <v>0.9035659817539943</v>
       </c>
       <c r="D278" t="n">
-        <v>0.9396201203176355</v>
+        <v>0.9035659817539943</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -7675,13 +7675,13 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>0.01725703596003625</v>
+        <v>0.01989133651235908</v>
       </c>
       <c r="C279" t="n">
-        <v>0.9827429640399638</v>
+        <v>0.9801086634876409</v>
       </c>
       <c r="D279" t="n">
-        <v>0.9827429640399638</v>
+        <v>0.9801086634876409</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
@@ -7701,13 +7701,13 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>0.05330949582033706</v>
+        <v>0.0580561163428197</v>
       </c>
       <c r="C280" t="n">
-        <v>0.9466905041796629</v>
+        <v>0.9419438836571803</v>
       </c>
       <c r="D280" t="n">
-        <v>0.9466905041796629</v>
+        <v>0.9419438836571803</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -7727,13 +7727,13 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>0.05847272952206506</v>
+        <v>0.08994920507182569</v>
       </c>
       <c r="C281" t="n">
-        <v>0.9415272704779349</v>
+        <v>0.9100507949281743</v>
       </c>
       <c r="D281" t="n">
-        <v>0.9415272704779349</v>
+        <v>0.9100507949281743</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -7753,13 +7753,13 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>0.03449207981009028</v>
+        <v>0.07173172843262265</v>
       </c>
       <c r="C282" t="n">
-        <v>0.9655079201899097</v>
+        <v>0.9282682715673773</v>
       </c>
       <c r="D282" t="n">
-        <v>0.9655079201899097</v>
+        <v>0.9282682715673773</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
@@ -7779,13 +7779,13 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>0.03278160954077691</v>
+        <v>0.05631578162843609</v>
       </c>
       <c r="C283" t="n">
-        <v>0.9672183904592231</v>
+        <v>0.9436842183715639</v>
       </c>
       <c r="D283" t="n">
-        <v>0.9672183904592231</v>
+        <v>0.9436842183715639</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -7805,13 +7805,13 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>0.04053169839083215</v>
+        <v>0.08343883279969277</v>
       </c>
       <c r="C284" t="n">
-        <v>0.9594683016091679</v>
+        <v>0.9165611672003072</v>
       </c>
       <c r="D284" t="n">
-        <v>0.9594683016091679</v>
+        <v>0.9165611672003072</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -7831,13 +7831,13 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>0.04891738794799982</v>
+        <v>0.09623119505619016</v>
       </c>
       <c r="C285" t="n">
-        <v>0.9510826120520002</v>
+        <v>0.9037688049438098</v>
       </c>
       <c r="D285" t="n">
-        <v>0.9510826120520002</v>
+        <v>0.9037688049438098</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -7857,13 +7857,13 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>0.03278160954077691</v>
+        <v>0.05631578162843609</v>
       </c>
       <c r="C286" t="n">
-        <v>0.9672183904592231</v>
+        <v>0.9436842183715639</v>
       </c>
       <c r="D286" t="n">
-        <v>0.9672183904592231</v>
+        <v>0.9436842183715639</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
@@ -7883,13 +7883,13 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>0.05339633216604311</v>
+        <v>0.0861935366440385</v>
       </c>
       <c r="C287" t="n">
-        <v>0.9466036678339569</v>
+        <v>0.9138064633559615</v>
       </c>
       <c r="D287" t="n">
-        <v>0.9466036678339569</v>
+        <v>0.9138064633559615</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
@@ -7909,13 +7909,13 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>0.07521118661372617</v>
+        <v>0.1414974211573387</v>
       </c>
       <c r="C288" t="n">
-        <v>0.9247888133862738</v>
+        <v>0.8585025788426613</v>
       </c>
       <c r="D288" t="n">
-        <v>0.9247888133862738</v>
+        <v>0.8585025788426613</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
@@ -7935,13 +7935,13 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>0.02063662486207252</v>
+        <v>0.03379022478824123</v>
       </c>
       <c r="C289" t="n">
-        <v>0.9793633751379275</v>
+        <v>0.9662097752117588</v>
       </c>
       <c r="D289" t="n">
-        <v>0.9793633751379275</v>
+        <v>0.9662097752117588</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -7961,13 +7961,13 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>3.078659604749401e-05</v>
+        <v>1.024729420839865e-05</v>
       </c>
       <c r="C290" t="n">
-        <v>0.9999692134039525</v>
+        <v>0.9999897527057916</v>
       </c>
       <c r="D290" t="n">
-        <v>0.9999692134039525</v>
+        <v>0.9999897527057916</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -7987,13 +7987,13 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>0.08792083751473845</v>
+        <v>0.135259038296459</v>
       </c>
       <c r="C291" t="n">
-        <v>0.9120791624852616</v>
+        <v>0.864740961703541</v>
       </c>
       <c r="D291" t="n">
-        <v>0.9120791624852616</v>
+        <v>0.864740961703541</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -8013,13 +8013,13 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>0.05959708348946213</v>
+        <v>0.09403112582666151</v>
       </c>
       <c r="C292" t="n">
-        <v>0.9404029165105379</v>
+        <v>0.9059688741733385</v>
       </c>
       <c r="D292" t="n">
-        <v>0.9404029165105379</v>
+        <v>0.9059688741733385</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
@@ -8039,13 +8039,13 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>0.06635152265205913</v>
+        <v>0.106915787030979</v>
       </c>
       <c r="C293" t="n">
-        <v>0.9336484773479409</v>
+        <v>0.893084212969021</v>
       </c>
       <c r="D293" t="n">
-        <v>0.9336484773479409</v>
+        <v>0.893084212969021</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
@@ -8065,13 +8065,13 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>0.06635152265205913</v>
+        <v>0.106915787030979</v>
       </c>
       <c r="C294" t="n">
-        <v>0.9336484773479409</v>
+        <v>0.893084212969021</v>
       </c>
       <c r="D294" t="n">
-        <v>0.9336484773479409</v>
+        <v>0.893084212969021</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
@@ -8091,13 +8091,13 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>0.1587598508959058</v>
+        <v>0.2417802195741247</v>
       </c>
       <c r="C295" t="n">
-        <v>0.8412401491040943</v>
+        <v>0.7582197804258753</v>
       </c>
       <c r="D295" t="n">
-        <v>0.8412401491040943</v>
+        <v>0.7582197804258753</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -8106,7 +8106,7 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>f__Veillonellaceae</t>
+          <t>f__Veillonellaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -8117,13 +8117,13 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>0.08063670751574281</v>
+        <v>0.1336724530814422</v>
       </c>
       <c r="C296" t="n">
-        <v>0.9193632924842572</v>
+        <v>0.8663275469185578</v>
       </c>
       <c r="D296" t="n">
-        <v>0.9193632924842572</v>
+        <v>0.8663275469185578</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
@@ -8143,13 +8143,13 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>0.0537744781037427</v>
+        <v>0.1069077447701748</v>
       </c>
       <c r="C297" t="n">
-        <v>0.9462255218962573</v>
+        <v>0.8930922552298252</v>
       </c>
       <c r="D297" t="n">
-        <v>0.9462255218962573</v>
+        <v>0.8930922552298252</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
@@ -8169,13 +8169,13 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>0.07119008087248602</v>
+        <v>0.1133065962509955</v>
       </c>
       <c r="C298" t="n">
-        <v>0.928809919127514</v>
+        <v>0.8866934037490045</v>
       </c>
       <c r="D298" t="n">
-        <v>0.928809919127514</v>
+        <v>0.8866934037490045</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
@@ -8195,13 +8195,13 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>0.1019127955263491</v>
+        <v>0.1705119940802753</v>
       </c>
       <c r="C299" t="n">
-        <v>0.8980872044736509</v>
+        <v>0.8294880059197247</v>
       </c>
       <c r="D299" t="n">
-        <v>0.8980872044736509</v>
+        <v>0.8294880059197247</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -8221,13 +8221,13 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>0.02920030254839778</v>
+        <v>0.04745225612739667</v>
       </c>
       <c r="C300" t="n">
-        <v>0.9707996974516022</v>
+        <v>0.9525477438726033</v>
       </c>
       <c r="D300" t="n">
-        <v>0.9707996974516022</v>
+        <v>0.9525477438726033</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
@@ -8247,13 +8247,13 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>0.08720491911493455</v>
+        <v>0.1357341899704199</v>
       </c>
       <c r="C301" t="n">
-        <v>0.9127950808850654</v>
+        <v>0.8642658100295801</v>
       </c>
       <c r="D301" t="n">
-        <v>0.9127950808850654</v>
+        <v>0.8642658100295801</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
@@ -8273,13 +8273,13 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>0.001089675550753122</v>
+        <v>0.0009897781241028358</v>
       </c>
       <c r="C302" t="n">
-        <v>0.9989103244492469</v>
+        <v>0.9990102218758972</v>
       </c>
       <c r="D302" t="n">
-        <v>0.9989103244492469</v>
+        <v>0.9990102218758972</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
@@ -8299,13 +8299,13 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>0.03439385290030761</v>
+        <v>0.05824617947059829</v>
       </c>
       <c r="C303" t="n">
-        <v>0.9656061470996924</v>
+        <v>0.9417538205294017</v>
       </c>
       <c r="D303" t="n">
-        <v>0.9656061470996924</v>
+        <v>0.9417538205294017</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
@@ -8325,13 +8325,13 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>0.00231983084998888</v>
+        <v>0.002509149725227644</v>
       </c>
       <c r="C304" t="n">
-        <v>0.9976801691500111</v>
+        <v>0.9974908502747724</v>
       </c>
       <c r="D304" t="n">
-        <v>0.9976801691500111</v>
+        <v>0.9974908502747724</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -8351,13 +8351,13 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>0.0003354094665114493</v>
+        <v>0.0003553447309077029</v>
       </c>
       <c r="C305" t="n">
-        <v>0.9996645905334886</v>
+        <v>0.9996446552690923</v>
       </c>
       <c r="D305" t="n">
-        <v>0.9996645905334886</v>
+        <v>0.9996446552690923</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -8377,13 +8377,13 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>0.001558030322615811</v>
+        <v>0.001824725973432084</v>
       </c>
       <c r="C306" t="n">
-        <v>0.9984419696773842</v>
+        <v>0.9981752740265679</v>
       </c>
       <c r="D306" t="n">
-        <v>0.9984419696773842</v>
+        <v>0.9981752740265679</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
@@ -8403,13 +8403,13 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>0.00167621258687678</v>
+        <v>0.001615109642345014</v>
       </c>
       <c r="C307" t="n">
-        <v>0.9983237874131232</v>
+        <v>0.998384890357655</v>
       </c>
       <c r="D307" t="n">
-        <v>0.9983237874131232</v>
+        <v>0.998384890357655</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
@@ -8429,13 +8429,13 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>0.09958054066069399</v>
+        <v>0.1721294809411879</v>
       </c>
       <c r="C308" t="n">
-        <v>0.900419459339306</v>
+        <v>0.8278705190588121</v>
       </c>
       <c r="D308" t="n">
-        <v>0.900419459339306</v>
+        <v>0.8278705190588121</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
@@ -8455,13 +8455,13 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>0.04632394801455075</v>
+        <v>0.08875153965528924</v>
       </c>
       <c r="C309" t="n">
-        <v>0.9536760519854492</v>
+        <v>0.9112484603447107</v>
       </c>
       <c r="D309" t="n">
-        <v>0.9536760519854492</v>
+        <v>0.9112484603447107</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -8481,13 +8481,13 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>0.004847388593145929</v>
+        <v>0.006375568320238223</v>
       </c>
       <c r="C310" t="n">
-        <v>0.9951526114068541</v>
+        <v>0.9936244316797618</v>
       </c>
       <c r="D310" t="n">
-        <v>0.9951526114068541</v>
+        <v>0.9936244316797618</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
@@ -8507,13 +8507,13 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>0.0007087554364793025</v>
+        <v>0.0009651508207640935</v>
       </c>
       <c r="C311" t="n">
-        <v>0.9992912445635207</v>
+        <v>0.9990348491792359</v>
       </c>
       <c r="D311" t="n">
-        <v>0.9992912445635207</v>
+        <v>0.9990348491792359</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
@@ -8533,13 +8533,13 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>0.0549028273261708</v>
+        <v>0.09402732003479219</v>
       </c>
       <c r="C312" t="n">
-        <v>0.9450971726738292</v>
+        <v>0.9059726799652078</v>
       </c>
       <c r="D312" t="n">
-        <v>0.9450971726738292</v>
+        <v>0.9059726799652078</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
@@ -8559,13 +8559,13 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>0.05140738913620368</v>
+        <v>0.1017495961701064</v>
       </c>
       <c r="C313" t="n">
-        <v>0.9485926108637963</v>
+        <v>0.8982504038298936</v>
       </c>
       <c r="D313" t="n">
-        <v>0.9485926108637963</v>
+        <v>0.8982504038298936</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -8585,13 +8585,13 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>0.1027556520372457</v>
+        <v>0.1713174892743029</v>
       </c>
       <c r="C314" t="n">
-        <v>0.8972443479627543</v>
+        <v>0.8286825107256971</v>
       </c>
       <c r="D314" t="n">
-        <v>0.8972443479627543</v>
+        <v>0.8286825107256971</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
@@ -8611,13 +8611,13 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>0.001419671282664403</v>
+        <v>0.001657127862025654</v>
       </c>
       <c r="C315" t="n">
-        <v>0.9985803287173356</v>
+        <v>0.9983428721379743</v>
       </c>
       <c r="D315" t="n">
-        <v>0.9985803287173356</v>
+        <v>0.9983428721379743</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
@@ -8637,13 +8637,13 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>0.0004218544932715895</v>
+        <v>0.0003969879930001419</v>
       </c>
       <c r="C316" t="n">
-        <v>0.9995781455067284</v>
+        <v>0.9996030120069999</v>
       </c>
       <c r="D316" t="n">
-        <v>0.9995781455067284</v>
+        <v>0.9996030120069999</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
@@ -8663,13 +8663,13 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>0.0004619314444519462</v>
+        <v>0.0004824740425917184</v>
       </c>
       <c r="C317" t="n">
-        <v>0.9995380685555481</v>
+        <v>0.9995175259574083</v>
       </c>
       <c r="D317" t="n">
-        <v>0.9995380685555481</v>
+        <v>0.9995175259574083</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
@@ -8689,13 +8689,13 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>0.009752330990610458</v>
+        <v>0.01166114140758279</v>
       </c>
       <c r="C318" t="n">
-        <v>0.9902476690093895</v>
+        <v>0.9883388585924172</v>
       </c>
       <c r="D318" t="n">
-        <v>0.9902476690093895</v>
+        <v>0.9883388585924172</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
@@ -8715,13 +8715,13 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>0.07748728924988524</v>
+        <v>0.1420504646823361</v>
       </c>
       <c r="C319" t="n">
-        <v>0.9225127107501148</v>
+        <v>0.8579495353176639</v>
       </c>
       <c r="D319" t="n">
-        <v>0.9225127107501148</v>
+        <v>0.8579495353176639</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
@@ -8741,13 +8741,13 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>0.00410357599475597</v>
+        <v>0.004211365882081486</v>
       </c>
       <c r="C320" t="n">
-        <v>0.995896424005244</v>
+        <v>0.9957886341179185</v>
       </c>
       <c r="D320" t="n">
-        <v>0.995896424005244</v>
+        <v>0.9957886341179185</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
@@ -8767,13 +8767,13 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>0.001880406449570549</v>
+        <v>0.002025855104986762</v>
       </c>
       <c r="C321" t="n">
-        <v>0.9981195935504295</v>
+        <v>0.9979741448950132</v>
       </c>
       <c r="D321" t="n">
-        <v>0.9981195935504295</v>
+        <v>0.9979741448950132</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
@@ -8793,13 +8793,13 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>0.05140738913620368</v>
+        <v>0.1017495961701064</v>
       </c>
       <c r="C322" t="n">
-        <v>0.9485926108637963</v>
+        <v>0.8982504038298936</v>
       </c>
       <c r="D322" t="n">
-        <v>0.9485926108637963</v>
+        <v>0.8982504038298936</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -8819,13 +8819,13 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>0.005370360951028497</v>
+        <v>0.005797184097522612</v>
       </c>
       <c r="C323" t="n">
-        <v>0.9946296390489715</v>
+        <v>0.9942028159024774</v>
       </c>
       <c r="D323" t="n">
-        <v>0.9946296390489715</v>
+        <v>0.9942028159024774</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
@@ -8845,13 +8845,13 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>0.03916628898325014</v>
+        <v>0.05594950786662156</v>
       </c>
       <c r="C324" t="n">
-        <v>0.9608337110167499</v>
+        <v>0.9440504921333784</v>
       </c>
       <c r="D324" t="n">
-        <v>0.9608337110167499</v>
+        <v>0.9440504921333784</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
@@ -8871,13 +8871,13 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>0.002830243749227801</v>
+        <v>0.005323029874996554</v>
       </c>
       <c r="C325" t="n">
-        <v>0.9971697562507722</v>
+        <v>0.9946769701250034</v>
       </c>
       <c r="D325" t="n">
-        <v>0.9971697562507722</v>
+        <v>0.9946769701250034</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
@@ -8897,13 +8897,13 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>0.03916628898325014</v>
+        <v>0.05594950786662156</v>
       </c>
       <c r="C326" t="n">
-        <v>0.9608337110167499</v>
+        <v>0.9440504921333784</v>
       </c>
       <c r="D326" t="n">
-        <v>0.9608337110167499</v>
+        <v>0.9440504921333784</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
@@ -8923,13 +8923,13 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>0.01420002775754592</v>
+        <v>0.02058663088334245</v>
       </c>
       <c r="C327" t="n">
-        <v>0.9857999722424541</v>
+        <v>0.9794133691166576</v>
       </c>
       <c r="D327" t="n">
-        <v>0.9857999722424541</v>
+        <v>0.9794133691166576</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -8949,13 +8949,13 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>0.08968997523123123</v>
+        <v>0.124118365791582</v>
       </c>
       <c r="C328" t="n">
-        <v>0.9103100247687688</v>
+        <v>0.875881634208418</v>
       </c>
       <c r="D328" t="n">
-        <v>0.9103100247687688</v>
+        <v>0.875881634208418</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
@@ -8975,13 +8975,13 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>0.03916628898325014</v>
+        <v>0.05594950786662156</v>
       </c>
       <c r="C329" t="n">
-        <v>0.9608337110167499</v>
+        <v>0.9440504921333784</v>
       </c>
       <c r="D329" t="n">
-        <v>0.9608337110167499</v>
+        <v>0.9440504921333784</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
@@ -9001,13 +9001,13 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>0.002274832389962067</v>
+        <v>0.004183973129131102</v>
       </c>
       <c r="C330" t="n">
-        <v>0.9977251676100379</v>
+        <v>0.9958160268708689</v>
       </c>
       <c r="D330" t="n">
-        <v>0.9977251676100379</v>
+        <v>0.9958160268708689</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
@@ -9027,13 +9027,13 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>0.09959208477883164</v>
+        <v>0.1531509437058918</v>
       </c>
       <c r="C331" t="n">
-        <v>0.9004079152211684</v>
+        <v>0.8468490562941082</v>
       </c>
       <c r="D331" t="n">
-        <v>0.9004079152211684</v>
+        <v>0.8468490562941082</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
@@ -9053,13 +9053,13 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>0.002622008895623251</v>
+        <v>0.005567623605469585</v>
       </c>
       <c r="C332" t="n">
-        <v>0.9973779911043767</v>
+        <v>0.9944323763945304</v>
       </c>
       <c r="D332" t="n">
-        <v>0.9973779911043767</v>
+        <v>0.9944323763945304</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
@@ -9079,13 +9079,13 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>0.0005337175625576007</v>
+        <v>0.0003081935482274201</v>
       </c>
       <c r="C333" t="n">
-        <v>0.9994662824374424</v>
+        <v>0.9996918064517726</v>
       </c>
       <c r="D333" t="n">
-        <v>0.9994662824374424</v>
+        <v>0.9996918064517726</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
@@ -9105,13 +9105,13 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>0.0299374052862208</v>
+        <v>0.05880738616288939</v>
       </c>
       <c r="C334" t="n">
-        <v>0.9700625947137792</v>
+        <v>0.9411926138371106</v>
       </c>
       <c r="D334" t="n">
-        <v>0.9700625947137792</v>
+        <v>0.9411926138371106</v>
       </c>
       <c r="E334" t="inlineStr">
         <is>
@@ -9131,13 +9131,13 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>0.03916628898325014</v>
+        <v>0.05594950786662156</v>
       </c>
       <c r="C335" t="n">
-        <v>0.9608337110167499</v>
+        <v>0.9440504921333784</v>
       </c>
       <c r="D335" t="n">
-        <v>0.9608337110167499</v>
+        <v>0.9440504921333784</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
@@ -9157,13 +9157,13 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>0.002622008895623251</v>
+        <v>0.005567623605469585</v>
       </c>
       <c r="C336" t="n">
-        <v>0.9973779911043767</v>
+        <v>0.9944323763945304</v>
       </c>
       <c r="D336" t="n">
-        <v>0.9973779911043767</v>
+        <v>0.9944323763945304</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
@@ -9183,13 +9183,13 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>0.07823719154304909</v>
+        <v>0.1414360576954307</v>
       </c>
       <c r="C337" t="n">
-        <v>0.921762808456951</v>
+        <v>0.8585639423045693</v>
       </c>
       <c r="D337" t="n">
-        <v>0.921762808456951</v>
+        <v>0.8585639423045693</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
@@ -9209,13 +9209,13 @@
         </is>
       </c>
       <c r="B338" t="n">
-        <v>0.04134795679485792</v>
+        <v>0.07316406704687495</v>
       </c>
       <c r="C338" t="n">
-        <v>0.9586520432051421</v>
+        <v>0.9268359329531251</v>
       </c>
       <c r="D338" t="n">
-        <v>0.9586520432051421</v>
+        <v>0.9268359329531251</v>
       </c>
       <c r="E338" t="inlineStr">
         <is>
@@ -9235,13 +9235,13 @@
         </is>
       </c>
       <c r="B339" t="n">
-        <v>0.001206244138058477</v>
+        <v>0.002697499597084874</v>
       </c>
       <c r="C339" t="n">
-        <v>0.9987937558619415</v>
+        <v>0.9973025004029151</v>
       </c>
       <c r="D339" t="n">
-        <v>0.9987937558619415</v>
+        <v>0.9973025004029151</v>
       </c>
       <c r="E339" t="inlineStr">
         <is>
@@ -9261,13 +9261,13 @@
         </is>
       </c>
       <c r="B340" t="n">
-        <v>0.03916628898325014</v>
+        <v>0.05594950786662156</v>
       </c>
       <c r="C340" t="n">
-        <v>0.9608337110167499</v>
+        <v>0.9440504921333784</v>
       </c>
       <c r="D340" t="n">
-        <v>0.9608337110167499</v>
+        <v>0.9440504921333784</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
@@ -9287,13 +9287,13 @@
         </is>
       </c>
       <c r="B341" t="n">
-        <v>0.04797115573129196</v>
+        <v>0.07638866814728984</v>
       </c>
       <c r="C341" t="n">
-        <v>0.952028844268708</v>
+        <v>0.9236113318527102</v>
       </c>
       <c r="D341" t="n">
-        <v>0.952028844268708</v>
+        <v>0.9236113318527102</v>
       </c>
       <c r="E341" t="inlineStr">
         <is>
@@ -9313,13 +9313,13 @@
         </is>
       </c>
       <c r="B342" t="n">
-        <v>0.05360681663218692</v>
+        <v>0.09508549351876083</v>
       </c>
       <c r="C342" t="n">
-        <v>0.9463931833678131</v>
+        <v>0.9049145064812392</v>
       </c>
       <c r="D342" t="n">
-        <v>0.9463931833678131</v>
+        <v>0.9049145064812392</v>
       </c>
       <c r="E342" t="inlineStr">
         <is>
@@ -9339,13 +9339,13 @@
         </is>
       </c>
       <c r="B343" t="n">
-        <v>0.0003102626518146634</v>
+        <v>0.0007491591121846497</v>
       </c>
       <c r="C343" t="n">
-        <v>0.9996897373481853</v>
+        <v>0.9992508408878154</v>
       </c>
       <c r="D343" t="n">
-        <v>0.9996897373481853</v>
+        <v>0.9992508408878154</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
@@ -9365,13 +9365,13 @@
         </is>
       </c>
       <c r="B344" t="n">
-        <v>0.04797115573129196</v>
+        <v>0.07638866814728984</v>
       </c>
       <c r="C344" t="n">
-        <v>0.952028844268708</v>
+        <v>0.9236113318527102</v>
       </c>
       <c r="D344" t="n">
-        <v>0.952028844268708</v>
+        <v>0.9236113318527102</v>
       </c>
       <c r="E344" t="inlineStr">
         <is>
@@ -9391,13 +9391,13 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>0.00232388744391665</v>
+        <v>0.003718876677916261</v>
       </c>
       <c r="C345" t="n">
-        <v>0.9976761125560833</v>
+        <v>0.9962811233220837</v>
       </c>
       <c r="D345" t="n">
-        <v>0.9976761125560833</v>
+        <v>0.9962811233220837</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
@@ -9417,13 +9417,13 @@
         </is>
       </c>
       <c r="B346" t="n">
-        <v>0.03916628898325014</v>
+        <v>0.05594950786662156</v>
       </c>
       <c r="C346" t="n">
-        <v>0.9608337110167499</v>
+        <v>0.9440504921333784</v>
       </c>
       <c r="D346" t="n">
-        <v>0.9608337110167499</v>
+        <v>0.9440504921333784</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
@@ -9443,13 +9443,13 @@
         </is>
       </c>
       <c r="B347" t="n">
-        <v>0.03916628898325014</v>
+        <v>0.05594950786662156</v>
       </c>
       <c r="C347" t="n">
-        <v>0.9608337110167499</v>
+        <v>0.9440504921333784</v>
       </c>
       <c r="D347" t="n">
-        <v>0.9608337110167499</v>
+        <v>0.9440504921333784</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
@@ -9469,13 +9469,13 @@
         </is>
       </c>
       <c r="B348" t="n">
-        <v>0.001413841713117536</v>
+        <v>0.003504528147187824</v>
       </c>
       <c r="C348" t="n">
-        <v>0.9985861582868825</v>
+        <v>0.9964954718528122</v>
       </c>
       <c r="D348" t="n">
-        <v>0.9985861582868825</v>
+        <v>0.9964954718528122</v>
       </c>
       <c r="E348" t="inlineStr">
         <is>
@@ -9495,13 +9495,13 @@
         </is>
       </c>
       <c r="B349" t="n">
-        <v>0.002830243749227801</v>
+        <v>0.005323029874996554</v>
       </c>
       <c r="C349" t="n">
-        <v>0.9971697562507722</v>
+        <v>0.9946769701250034</v>
       </c>
       <c r="D349" t="n">
-        <v>0.9971697562507722</v>
+        <v>0.9946769701250034</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
@@ -9521,13 +9521,13 @@
         </is>
       </c>
       <c r="B350" t="n">
-        <v>0.09959208477883164</v>
+        <v>0.1531509437058918</v>
       </c>
       <c r="C350" t="n">
-        <v>0.9004079152211684</v>
+        <v>0.8468490562941082</v>
       </c>
       <c r="D350" t="n">
-        <v>0.9004079152211684</v>
+        <v>0.8468490562941082</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
@@ -9547,13 +9547,13 @@
         </is>
       </c>
       <c r="B351" t="n">
-        <v>0.07841062696842305</v>
+        <v>0.1250416165585663</v>
       </c>
       <c r="C351" t="n">
-        <v>0.921589373031577</v>
+        <v>0.8749583834414337</v>
       </c>
       <c r="D351" t="n">
-        <v>0.921589373031577</v>
+        <v>0.8749583834414337</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
@@ -9573,13 +9573,13 @@
         </is>
       </c>
       <c r="B352" t="n">
-        <v>0.0007241656180593248</v>
+        <v>0.002020271487963132</v>
       </c>
       <c r="C352" t="n">
-        <v>0.9992758343819407</v>
+        <v>0.9979797285120369</v>
       </c>
       <c r="D352" t="n">
-        <v>0.9992758343819407</v>
+        <v>0.9979797285120369</v>
       </c>
       <c r="E352" t="inlineStr">
         <is>
@@ -9599,13 +9599,13 @@
         </is>
       </c>
       <c r="B353" t="n">
-        <v>0.04797115573129196</v>
+        <v>0.07638866814728984</v>
       </c>
       <c r="C353" t="n">
-        <v>0.952028844268708</v>
+        <v>0.9236113318527102</v>
       </c>
       <c r="D353" t="n">
-        <v>0.952028844268708</v>
+        <v>0.9236113318527102</v>
       </c>
       <c r="E353" t="inlineStr">
         <is>
@@ -9625,13 +9625,13 @@
         </is>
       </c>
       <c r="B354" t="n">
-        <v>0.07758750866870545</v>
+        <v>0.1453636621393898</v>
       </c>
       <c r="C354" t="n">
-        <v>0.9224124913312945</v>
+        <v>0.8546363378606102</v>
       </c>
       <c r="D354" t="n">
-        <v>0.9224124913312945</v>
+        <v>0.8546363378606102</v>
       </c>
       <c r="E354" t="inlineStr">
         <is>
@@ -9651,13 +9651,13 @@
         </is>
       </c>
       <c r="B355" t="n">
-        <v>0.04134795679485792</v>
+        <v>0.07316406704687495</v>
       </c>
       <c r="C355" t="n">
-        <v>0.9586520432051421</v>
+        <v>0.9268359329531251</v>
       </c>
       <c r="D355" t="n">
-        <v>0.9586520432051421</v>
+        <v>0.9268359329531251</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
@@ -9677,13 +9677,13 @@
         </is>
       </c>
       <c r="B356" t="n">
-        <v>0.03916628898325014</v>
+        <v>0.05594950786662156</v>
       </c>
       <c r="C356" t="n">
-        <v>0.9608337110167499</v>
+        <v>0.9440504921333784</v>
       </c>
       <c r="D356" t="n">
-        <v>0.9608337110167499</v>
+        <v>0.9440504921333784</v>
       </c>
       <c r="E356" t="inlineStr">
         <is>
@@ -9703,13 +9703,13 @@
         </is>
       </c>
       <c r="B357" t="n">
-        <v>0.0001631618870117091</v>
+        <v>0.000224361448822985</v>
       </c>
       <c r="C357" t="n">
-        <v>0.9998368381129883</v>
+        <v>0.999775638551177</v>
       </c>
       <c r="D357" t="n">
-        <v>0.9998368381129883</v>
+        <v>0.999775638551177</v>
       </c>
       <c r="E357" t="inlineStr">
         <is>
@@ -9729,13 +9729,13 @@
         </is>
       </c>
       <c r="B358" t="n">
-        <v>0.0003310618205858429</v>
+        <v>0.0003695075166858519</v>
       </c>
       <c r="C358" t="n">
-        <v>0.9996689381794142</v>
+        <v>0.9996304924833141</v>
       </c>
       <c r="D358" t="n">
-        <v>0.9996689381794142</v>
+        <v>0.9996304924833141</v>
       </c>
       <c r="E358" t="inlineStr">
         <is>
@@ -9755,13 +9755,13 @@
         </is>
       </c>
       <c r="B359" t="n">
-        <v>0.05502137593591327</v>
+        <v>0.08914510218844951</v>
       </c>
       <c r="C359" t="n">
-        <v>0.9449786240640867</v>
+        <v>0.9108548978115505</v>
       </c>
       <c r="D359" t="n">
-        <v>0.9449786240640867</v>
+        <v>0.9108548978115505</v>
       </c>
       <c r="E359" t="inlineStr">
         <is>
@@ -9781,13 +9781,13 @@
         </is>
       </c>
       <c r="B360" t="n">
-        <v>0.04797115573129196</v>
+        <v>0.07638866814728984</v>
       </c>
       <c r="C360" t="n">
-        <v>0.952028844268708</v>
+        <v>0.9236113318527102</v>
       </c>
       <c r="D360" t="n">
-        <v>0.952028844268708</v>
+        <v>0.9236113318527102</v>
       </c>
       <c r="E360" t="inlineStr">
         <is>
@@ -9807,13 +9807,13 @@
         </is>
       </c>
       <c r="B361" t="n">
-        <v>0.002622008895623251</v>
+        <v>0.005567623605469585</v>
       </c>
       <c r="C361" t="n">
-        <v>0.9973779911043767</v>
+        <v>0.9944323763945304</v>
       </c>
       <c r="D361" t="n">
-        <v>0.9973779911043767</v>
+        <v>0.9944323763945304</v>
       </c>
       <c r="E361" t="inlineStr">
         <is>
@@ -9833,13 +9833,13 @@
         </is>
       </c>
       <c r="B362" t="n">
-        <v>0.03916628898325014</v>
+        <v>0.05594950786662156</v>
       </c>
       <c r="C362" t="n">
-        <v>0.9608337110167499</v>
+        <v>0.9440504921333784</v>
       </c>
       <c r="D362" t="n">
-        <v>0.9608337110167499</v>
+        <v>0.9440504921333784</v>
       </c>
       <c r="E362" t="inlineStr">
         <is>
@@ -9859,13 +9859,13 @@
         </is>
       </c>
       <c r="B363" t="n">
-        <v>0.002622008895623251</v>
+        <v>0.005567623605469585</v>
       </c>
       <c r="C363" t="n">
-        <v>0.9973779911043767</v>
+        <v>0.9944323763945304</v>
       </c>
       <c r="D363" t="n">
-        <v>0.9973779911043767</v>
+        <v>0.9944323763945304</v>
       </c>
       <c r="E363" t="inlineStr">
         <is>
@@ -9885,13 +9885,13 @@
         </is>
       </c>
       <c r="B364" t="n">
-        <v>0.0003900567291820201</v>
+        <v>0.0007614593817766302</v>
       </c>
       <c r="C364" t="n">
-        <v>0.999609943270818</v>
+        <v>0.9992385406182234</v>
       </c>
       <c r="D364" t="n">
-        <v>0.999609943270818</v>
+        <v>0.9992385406182234</v>
       </c>
       <c r="E364" t="inlineStr">
         <is>
@@ -9911,13 +9911,13 @@
         </is>
       </c>
       <c r="B365" t="n">
-        <v>0.04797115573129196</v>
+        <v>0.07638866814728984</v>
       </c>
       <c r="C365" t="n">
-        <v>0.952028844268708</v>
+        <v>0.9236113318527102</v>
       </c>
       <c r="D365" t="n">
-        <v>0.952028844268708</v>
+        <v>0.9236113318527102</v>
       </c>
       <c r="E365" t="inlineStr">
         <is>
@@ -9937,13 +9937,13 @@
         </is>
       </c>
       <c r="B366" t="n">
-        <v>0.002622008895623251</v>
+        <v>0.005567623605469585</v>
       </c>
       <c r="C366" t="n">
-        <v>0.9973779911043767</v>
+        <v>0.9944323763945304</v>
       </c>
       <c r="D366" t="n">
-        <v>0.9973779911043767</v>
+        <v>0.9944323763945304</v>
       </c>
       <c r="E366" t="inlineStr">
         <is>
@@ -9963,13 +9963,13 @@
         </is>
       </c>
       <c r="B367" t="n">
-        <v>0.03916628898325014</v>
+        <v>0.05594950786662156</v>
       </c>
       <c r="C367" t="n">
-        <v>0.9608337110167499</v>
+        <v>0.9440504921333784</v>
       </c>
       <c r="D367" t="n">
-        <v>0.9608337110167499</v>
+        <v>0.9440504921333784</v>
       </c>
       <c r="E367" t="inlineStr">
         <is>
@@ -9989,13 +9989,13 @@
         </is>
       </c>
       <c r="B368" t="n">
-        <v>0.003768613410838895</v>
+        <v>0.008356132987492382</v>
       </c>
       <c r="C368" t="n">
-        <v>0.9962313865891611</v>
+        <v>0.9916438670125076</v>
       </c>
       <c r="D368" t="n">
-        <v>0.9962313865891611</v>
+        <v>0.9916438670125076</v>
       </c>
       <c r="E368" t="inlineStr">
         <is>
@@ -10015,13 +10015,13 @@
         </is>
       </c>
       <c r="B369" t="n">
-        <v>0.03916628898325014</v>
+        <v>0.05594950786662156</v>
       </c>
       <c r="C369" t="n">
-        <v>0.9608337110167499</v>
+        <v>0.9440504921333784</v>
       </c>
       <c r="D369" t="n">
-        <v>0.9608337110167499</v>
+        <v>0.9440504921333784</v>
       </c>
       <c r="E369" t="inlineStr">
         <is>
@@ -10041,13 +10041,13 @@
         </is>
       </c>
       <c r="B370" t="n">
-        <v>0.001266563189446068</v>
+        <v>0.001987014831828726</v>
       </c>
       <c r="C370" t="n">
-        <v>0.9987334368105539</v>
+        <v>0.9980129851681713</v>
       </c>
       <c r="D370" t="n">
-        <v>0.9987334368105539</v>
+        <v>0.9980129851681713</v>
       </c>
       <c r="E370" t="inlineStr">
         <is>
@@ -10067,13 +10067,13 @@
         </is>
       </c>
       <c r="B371" t="n">
-        <v>0.0002202290473428681</v>
+        <v>0.0005905946686375341</v>
       </c>
       <c r="C371" t="n">
-        <v>0.9997797709526571</v>
+        <v>0.9994094053313625</v>
       </c>
       <c r="D371" t="n">
-        <v>0.9997797709526571</v>
+        <v>0.9994094053313625</v>
       </c>
       <c r="E371" t="inlineStr">
         <is>
@@ -10093,13 +10093,13 @@
         </is>
       </c>
       <c r="B372" t="n">
-        <v>0.000299433234298041</v>
+        <v>0.0005246119710599073</v>
       </c>
       <c r="C372" t="n">
-        <v>0.999700566765702</v>
+        <v>0.9994753880289401</v>
       </c>
       <c r="D372" t="n">
-        <v>0.999700566765702</v>
+        <v>0.9994753880289401</v>
       </c>
       <c r="E372" t="inlineStr">
         <is>
@@ -10119,13 +10119,13 @@
         </is>
       </c>
       <c r="B373" t="n">
-        <v>0.001088216501774042</v>
+        <v>0.002424367922289838</v>
       </c>
       <c r="C373" t="n">
-        <v>0.998911783498226</v>
+        <v>0.9975756320777102</v>
       </c>
       <c r="D373" t="n">
-        <v>0.998911783498226</v>
+        <v>0.9975756320777102</v>
       </c>
       <c r="E373" t="inlineStr">
         <is>
@@ -10145,13 +10145,13 @@
         </is>
       </c>
       <c r="B374" t="n">
-        <v>0.0006327844929615578</v>
+        <v>0.0009508551340214888</v>
       </c>
       <c r="C374" t="n">
-        <v>0.9993672155070384</v>
+        <v>0.9990491448659785</v>
       </c>
       <c r="D374" t="n">
-        <v>0.9993672155070384</v>
+        <v>0.9990491448659785</v>
       </c>
       <c r="E374" t="inlineStr">
         <is>
@@ -10171,13 +10171,13 @@
         </is>
       </c>
       <c r="B375" t="n">
-        <v>0.001117940076597601</v>
+        <v>0.002586426484026738</v>
       </c>
       <c r="C375" t="n">
-        <v>0.9988820599234024</v>
+        <v>0.9974135735159733</v>
       </c>
       <c r="D375" t="n">
-        <v>0.9988820599234024</v>
+        <v>0.9974135735159733</v>
       </c>
       <c r="E375" t="inlineStr">
         <is>
@@ -10197,13 +10197,13 @@
         </is>
       </c>
       <c r="B376" t="n">
-        <v>0.004219900552890565</v>
+        <v>0.01072583861229848</v>
       </c>
       <c r="C376" t="n">
-        <v>0.9957800994471094</v>
+        <v>0.9892741613877015</v>
       </c>
       <c r="D376" t="n">
-        <v>0.9957800994471094</v>
+        <v>0.9892741613877015</v>
       </c>
       <c r="E376" t="inlineStr">
         <is>
@@ -10223,13 +10223,13 @@
         </is>
       </c>
       <c r="B377" t="n">
-        <v>0.002935642248128256</v>
+        <v>0.008461356179524593</v>
       </c>
       <c r="C377" t="n">
-        <v>0.9970643577518717</v>
+        <v>0.9915386438204754</v>
       </c>
       <c r="D377" t="n">
-        <v>0.9970643577518717</v>
+        <v>0.9915386438204754</v>
       </c>
       <c r="E377" t="inlineStr">
         <is>
@@ -10249,13 +10249,13 @@
         </is>
       </c>
       <c r="B378" t="n">
-        <v>0.00134474620463032</v>
+        <v>0.002072348861320017</v>
       </c>
       <c r="C378" t="n">
-        <v>0.9986552537953697</v>
+        <v>0.99792765113868</v>
       </c>
       <c r="D378" t="n">
-        <v>0.9986552537953697</v>
+        <v>0.99792765113868</v>
       </c>
       <c r="E378" t="inlineStr">
         <is>
@@ -10275,13 +10275,13 @@
         </is>
       </c>
       <c r="B379" t="n">
-        <v>0.0006462402607940732</v>
+        <v>0.001446765042518505</v>
       </c>
       <c r="C379" t="n">
-        <v>0.9993537597392059</v>
+        <v>0.9985532349574815</v>
       </c>
       <c r="D379" t="n">
-        <v>0.9993537597392059</v>
+        <v>0.9985532349574815</v>
       </c>
       <c r="E379" t="inlineStr">
         <is>
@@ -10301,13 +10301,13 @@
         </is>
       </c>
       <c r="B380" t="n">
-        <v>0.001479727185526469</v>
+        <v>0.002649587494646277</v>
       </c>
       <c r="C380" t="n">
-        <v>0.9985202728144735</v>
+        <v>0.9973504125053537</v>
       </c>
       <c r="D380" t="n">
-        <v>0.9985202728144735</v>
+        <v>0.9973504125053537</v>
       </c>
       <c r="E380" t="inlineStr">
         <is>
@@ -10327,13 +10327,13 @@
         </is>
       </c>
       <c r="B381" t="n">
-        <v>0.0005545980214886059</v>
+        <v>0.0005320567639364171</v>
       </c>
       <c r="C381" t="n">
-        <v>0.9994454019785114</v>
+        <v>0.9994679432360636</v>
       </c>
       <c r="D381" t="n">
-        <v>0.9994454019785114</v>
+        <v>0.9994679432360636</v>
       </c>
       <c r="E381" t="inlineStr">
         <is>
@@ -10353,13 +10353,13 @@
         </is>
       </c>
       <c r="B382" t="n">
-        <v>0.0001420845736198606</v>
+        <v>0.0001974998213806201</v>
       </c>
       <c r="C382" t="n">
-        <v>0.9998579154263801</v>
+        <v>0.9998025001786194</v>
       </c>
       <c r="D382" t="n">
-        <v>0.9998579154263801</v>
+        <v>0.9998025001786194</v>
       </c>
       <c r="E382" t="inlineStr">
         <is>
@@ -10379,13 +10379,13 @@
         </is>
       </c>
       <c r="B383" t="n">
-        <v>0.001908680264453233</v>
+        <v>0.003688824686110648</v>
       </c>
       <c r="C383" t="n">
-        <v>0.9980913197355468</v>
+        <v>0.9963111753138894</v>
       </c>
       <c r="D383" t="n">
-        <v>0.9980913197355468</v>
+        <v>0.9963111753138894</v>
       </c>
       <c r="E383" t="inlineStr">
         <is>
@@ -10405,13 +10405,13 @@
         </is>
       </c>
       <c r="B384" t="n">
-        <v>0.001479631818962268</v>
+        <v>0.002043973651967401</v>
       </c>
       <c r="C384" t="n">
-        <v>0.9985203681810377</v>
+        <v>0.9979560263480326</v>
       </c>
       <c r="D384" t="n">
-        <v>0.9985203681810377</v>
+        <v>0.9979560263480326</v>
       </c>
       <c r="E384" t="inlineStr">
         <is>
@@ -10431,13 +10431,13 @@
         </is>
       </c>
       <c r="B385" t="n">
-        <v>0.003362389367662533</v>
+        <v>0.00571461814632912</v>
       </c>
       <c r="C385" t="n">
-        <v>0.9966376106323375</v>
+        <v>0.9942853818536709</v>
       </c>
       <c r="D385" t="n">
-        <v>0.9966376106323375</v>
+        <v>0.9942853818536709</v>
       </c>
       <c r="E385" t="inlineStr">
         <is>
@@ -10457,13 +10457,13 @@
         </is>
       </c>
       <c r="B386" t="n">
-        <v>0.001598143353524706</v>
+        <v>0.004612527452446447</v>
       </c>
       <c r="C386" t="n">
-        <v>0.9984018566464753</v>
+        <v>0.9953874725475536</v>
       </c>
       <c r="D386" t="n">
-        <v>0.9984018566464753</v>
+        <v>0.9953874725475536</v>
       </c>
       <c r="E386" t="inlineStr">
         <is>
@@ -10483,13 +10483,13 @@
         </is>
       </c>
       <c r="B387" t="n">
-        <v>0.003318681543266755</v>
+        <v>0.01661678364237651</v>
       </c>
       <c r="C387" t="n">
-        <v>0.9966813184567332</v>
+        <v>0.9833832163576235</v>
       </c>
       <c r="D387" t="n">
-        <v>0.9966813184567332</v>
+        <v>0.9833832163576235</v>
       </c>
       <c r="E387" t="inlineStr">
         <is>
@@ -10509,13 +10509,13 @@
         </is>
       </c>
       <c r="B388" t="n">
-        <v>0.001276564195000218</v>
+        <v>0.002318166974556668</v>
       </c>
       <c r="C388" t="n">
-        <v>0.9987234358049998</v>
+        <v>0.9976818330254433</v>
       </c>
       <c r="D388" t="n">
-        <v>0.9987234358049998</v>
+        <v>0.9976818330254433</v>
       </c>
       <c r="E388" t="inlineStr">
         <is>
@@ -10535,13 +10535,13 @@
         </is>
       </c>
       <c r="B389" t="n">
-        <v>0.09428047172265652</v>
+        <v>0.1333738538165441</v>
       </c>
       <c r="C389" t="n">
-        <v>0.9057195282773435</v>
+        <v>0.8666261461834559</v>
       </c>
       <c r="D389" t="n">
-        <v>0.9057195282773435</v>
+        <v>0.8666261461834559</v>
       </c>
       <c r="E389" t="inlineStr">
         <is>
@@ -10561,13 +10561,13 @@
         </is>
       </c>
       <c r="B390" t="n">
-        <v>0.003755891545888956</v>
+        <v>0.006592310383376265</v>
       </c>
       <c r="C390" t="n">
-        <v>0.996244108454111</v>
+        <v>0.9934076896166237</v>
       </c>
       <c r="D390" t="n">
-        <v>0.996244108454111</v>
+        <v>0.9934076896166237</v>
       </c>
       <c r="E390" t="inlineStr">
         <is>
